--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -6,7 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="kriging_data_24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Year 2018" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Year 2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Year 2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Year 2021" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Year 2022" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Year 2023" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Year 2024" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -401,31 +407,479 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.23362249718058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.246724499436117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.94592671647101</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.368240839558876</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.9653024911032</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.393060498220641</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.87545787545788</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.267922553636839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.75238095238095</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.688095238095238</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.04284852142426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.260712130356065</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.06372549019608</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.51062091503268</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.30612244897959</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.661224489795918</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.11522904599165</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.235025449554628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.79503105590062</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.598343685300207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.43177976334219</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.286355952668437</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>56</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.81556416554289</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.226945520692861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.857142857142857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.77479579929988</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.591598599766628</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.14424190696824</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.190706984494706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>12.07579</v>
       </c>
       <c r="B2" t="n">
         <v>78.89401</v>
       </c>
       <c r="C2" t="n">
-        <v>7.49</v>
+        <v>8.15</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88959130835447</v>
+        <v>469</v>
       </c>
       <c r="E2" t="n">
-        <v>2.24707238306379</v>
+        <v>6.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.405465108108164</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.43579267958643</v>
+        <v>133.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38461538461538</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.692307692307692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +890,25 @@
         <v>78.89881</v>
       </c>
       <c r="C3" t="n">
-        <v>8.86</v>
+        <v>8.74</v>
       </c>
       <c r="D3" t="n">
-        <v>6.31535800152233</v>
+        <v>480</v>
       </c>
       <c r="E3" t="n">
-        <v>2.46044317760963</v>
+        <v>10.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.916290731874155</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0374075669757</v>
+        <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86466165413534</v>
+        <v>3.24526770828723</v>
       </c>
       <c r="I3" t="n">
-        <v>0.621553884711779</v>
+        <v>0.540877951381205</v>
       </c>
     </row>
     <row r="4">
@@ -465,25 +919,852 @@
         <v>78.9013</v>
       </c>
       <c r="C4" t="n">
-        <v>8.73</v>
+        <v>8.56</v>
       </c>
       <c r="D4" t="n">
-        <v>7.21597500265147</v>
+        <v>1048</v>
       </c>
       <c r="E4" t="n">
-        <v>2.40784560365154</v>
+        <v>9.75</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.693147180559945</v>
+        <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.49533693343558</v>
+        <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05220319174099</v>
+        <v>1.64119376772829</v>
       </c>
       <c r="I4" t="n">
-        <v>0.526101595870494</v>
+        <v>0.547064589242765</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>851</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.89489054139907</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.321654504599897</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>509</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.68261758691207</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.585327198364008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>382</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.08910095429432</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.257425079524527</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D8" t="n">
+        <v>211</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.61199294532628</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.451499118165785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.13266761768902</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.548666739822232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.96740828766973</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.393481657533945</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.18528955372106</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.39509651790702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.89932338554156</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.237415423192695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.84258416742493</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.368516833484986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.60863670160808</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.289848522400898</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.62392732954532</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.162392732954532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.46628745439398</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.822095818131326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.01742815301046</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.274311650273678</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.56282400692082</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.22326057241726</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.65590633493623</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.275984389156039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.5440269209198</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.636006730229949</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.8201844761427</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.705046119035675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.99291603762629</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.199291603762629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>257</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.0622206852928</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.151745812184685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>369</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.80747842761266</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.467913071268776</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>203</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.71743740754566</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.226453117295471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>279</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.38589950762787</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.125990864329807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.27770715851796</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.255541431703593</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.91194305299235</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.582388610598471</v>
       </c>
     </row>
     <row r="5">
@@ -494,25 +1775,25 @@
         <v>78.90157</v>
       </c>
       <c r="C5" t="n">
-        <v>8.84</v>
+        <v>9.04</v>
       </c>
       <c r="D5" t="n">
-        <v>6.89972310728487</v>
+        <v>239</v>
       </c>
       <c r="E5" t="n">
-        <v>2.32238772029023</v>
+        <v>11.38</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.916290731874155</v>
+        <v>0.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.288459735127999</v>
+        <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.76950713956702</v>
+        <v>1.2069825436409</v>
       </c>
       <c r="I5" t="n">
-        <v>0.589835713189007</v>
+        <v>0.24139650872818</v>
       </c>
     </row>
     <row r="6">
@@ -523,25 +1804,25 @@
         <v>78.90396</v>
       </c>
       <c r="C6" t="n">
-        <v>8.77</v>
+        <v>8.42</v>
       </c>
       <c r="D6" t="n">
-        <v>6.36818718635049</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>2.52172062291072</v>
+        <v>9.07</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.99573227355399</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.575710840080881</v>
+        <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.02085402184707</v>
+        <v>1.86058928218311</v>
       </c>
       <c r="I6" t="n">
-        <v>0.755213505461768</v>
+        <v>0.186058928218311</v>
       </c>
     </row>
     <row r="7">
@@ -552,25 +1833,358 @@
         <v>78.9265</v>
       </c>
       <c r="C7" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>299</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.90539912099716</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.290539912099716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>211</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.32158966231866</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.145099353894917</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>236</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.04058845231599</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.260147113078997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>166</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.09222298692361</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.218444597384721</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>212</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.16012844921956</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.165732635602794</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>553</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.77023787571455</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.177023787571455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C4" t="n">
         <v>8.73</v>
       </c>
+      <c r="D4" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.74921709691071</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.24988815670153</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>992</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.89104339796861</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.315173899661434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>583</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.14392523364486</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.628785046728972</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.73</v>
+      </c>
       <c r="D7" t="n">
-        <v>6.44888939414686</v>
+        <v>632</v>
       </c>
       <c r="E7" t="n">
-        <v>2.49979526228175</v>
+        <v>12.18</v>
       </c>
       <c r="F7" t="n">
-        <v>0.587786664902119</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.01303352511083</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.22995840051476</v>
+        <v>1.23868687927838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.307489600128689</v>
+        <v>0.137631875475376</v>
       </c>
     </row>
     <row r="8">
@@ -584,22 +2198,22 @@
         <v>8.56</v>
       </c>
       <c r="D8" t="n">
-        <v>6.3491389913798</v>
+        <v>572</v>
       </c>
       <c r="E8" t="n">
-        <v>2.74148497718845</v>
+        <v>15.51</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.916290731874155</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.785206737101216</v>
+        <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22278677826334</v>
+        <v>4.67058568314386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.555696694565835</v>
+        <v>0.467058568314386</v>
       </c>
     </row>
     <row r="9">
@@ -613,22 +2227,22 @@
         <v>8.46</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85220247977447</v>
+        <v>348</v>
       </c>
       <c r="E9" t="n">
-        <v>2.33311429802887</v>
+        <v>10.31</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.916290731874155</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.248373500986608</v>
+        <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48437700912948</v>
+        <v>3.728227153424</v>
       </c>
       <c r="I9" t="n">
-        <v>0.621094252282371</v>
+        <v>0.266301939530286</v>
       </c>
     </row>
     <row r="10">
@@ -642,22 +2256,22 @@
         <v>8.78</v>
       </c>
       <c r="D10" t="n">
-        <v>5.75574221358691</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
-        <v>2.91017438519234</v>
+        <v>18.36</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.6094379124341</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.401063779776429</v>
+        <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>1.19685294440236</v>
+        <v>1.18480168614677</v>
       </c>
       <c r="I10" t="n">
-        <v>0.299213236100589</v>
+        <v>0.169257383735253</v>
       </c>
     </row>
     <row r="11">
@@ -671,22 +2285,22 @@
         <v>8.1</v>
       </c>
       <c r="D11" t="n">
-        <v>5.11198778835654</v>
+        <v>166</v>
       </c>
       <c r="E11" t="n">
-        <v>2.66722820658195</v>
+        <v>14.4</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.916290731874155</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.411538574627446</v>
+        <v>56.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.12151686556938</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.373838955189794</v>
       </c>
     </row>
     <row r="12">
@@ -700,80 +2314,80 @@
         <v>9.85</v>
       </c>
       <c r="D12" t="n">
-        <v>7.09257371597468</v>
+        <v>1203</v>
       </c>
       <c r="E12" t="n">
-        <v>2.77944019718888</v>
+        <v>16.11</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.30258509299405</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.03922051223837</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.04024734959024</v>
+        <v>2.73495747310686</v>
       </c>
       <c r="I12" t="n">
-        <v>0.608049469918049</v>
+        <v>0.546991494621372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B13" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C13" t="n">
-        <v>8.2</v>
+        <v>9.88</v>
       </c>
       <c r="D13" t="n">
-        <v>5.92958914338989</v>
+        <v>1862</v>
       </c>
       <c r="E13" t="n">
-        <v>2.55567572067621</v>
+        <v>15.98</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.693147180559945</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.368833641773301</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.61571807093295</v>
+        <v>1.74151578812109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.653929517733238</v>
+        <v>0.435378947030273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B14" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C14" t="n">
-        <v>9.88</v>
+        <v>8.2</v>
       </c>
       <c r="D14" t="n">
-        <v>7.52940645783701</v>
+        <v>376</v>
       </c>
       <c r="E14" t="n">
-        <v>2.77133794033813</v>
+        <v>12.88</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.30258509299405</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.03922051223837</v>
+        <v>26.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.74151578812109</v>
+        <v>5.50670207022111</v>
       </c>
       <c r="I14" t="n">
-        <v>0.435378947030273</v>
+        <v>0.50060927911101</v>
       </c>
     </row>
   </sheetData>

--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Year 2022" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Year 2023" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Year 2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="All Years" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">lon</t>
   </si>
@@ -45,6 +46,30 @@
   </si>
   <si>
     <t xml:space="preserve">eveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
   </si>
 </sst>
 </file>
@@ -404,6 +429,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -425,6 +453,9 @@
       <c r="I2" t="n">
         <v>0.246724499436117</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -446,6 +477,9 @@
       <c r="I3" t="n">
         <v>0.368240839558876</v>
       </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -467,6 +501,9 @@
       <c r="I4" t="n">
         <v>0.393060498220641</v>
       </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -487,6 +524,9 @@
       </c>
       <c r="I5" t="n">
         <v>0.267922553636839</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +571,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,6 +595,9 @@
       <c r="I2" t="n">
         <v>0.688095238095238</v>
       </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -573,6 +619,9 @@
       <c r="I3" t="n">
         <v>0.260712130356065</v>
       </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,6 +643,9 @@
       <c r="I4" t="n">
         <v>0.571428571428571</v>
       </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -615,6 +667,9 @@
       <c r="I5" t="n">
         <v>0.51062091503268</v>
       </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -636,6 +691,9 @@
       <c r="I6" t="n">
         <v>0.661224489795918</v>
       </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -659,6 +717,9 @@
       <c r="I7" t="n">
         <v>0.235025449554628</v>
       </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -684,6 +745,9 @@
       <c r="I8" t="n">
         <v>0.598343685300207</v>
       </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -709,6 +773,9 @@
       <c r="I9" t="n">
         <v>0.286355952668437</v>
       </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -734,6 +801,9 @@
       <c r="I10" t="n">
         <v>0.226945520692861</v>
       </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -759,6 +829,9 @@
       <c r="I11" t="n">
         <v>0.857142857142857</v>
       </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -784,6 +857,9 @@
       <c r="I12" t="n">
         <v>0.591598599766628</v>
       </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -808,6 +884,9 @@
       </c>
       <c r="I13" t="n">
         <v>0.190706984494706</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -852,6 +931,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -881,6 +963,9 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -910,6 +995,9 @@
       <c r="I3" t="n">
         <v>0.540877951381205</v>
       </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -939,6 +1027,9 @@
       <c r="I4" t="n">
         <v>0.547064589242765</v>
       </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -968,6 +1059,9 @@
       <c r="I5" t="n">
         <v>0.321654504599897</v>
       </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -997,6 +1091,9 @@
       <c r="I6" t="n">
         <v>0.585327198364008</v>
       </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1026,6 +1123,9 @@
       <c r="I7" t="n">
         <v>0.257425079524527</v>
       </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1055,6 +1155,9 @@
       <c r="I8" t="n">
         <v>0.451499118165785</v>
       </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1083,6 +1186,9 @@
       </c>
       <c r="I9" t="n">
         <v>0.548666739822232</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1127,6 +1233,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1152,6 +1261,9 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1177,6 +1289,9 @@
       <c r="I3" t="n">
         <v>0.393481657533945</v>
       </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1202,6 +1317,9 @@
       <c r="I4" t="n">
         <v>0.39509651790702</v>
       </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1227,6 +1345,9 @@
       <c r="I5" t="n">
         <v>0.237415423192695</v>
       </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1252,6 +1373,9 @@
       <c r="I6" t="n">
         <v>0.368516833484986</v>
       </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1277,6 +1401,9 @@
       <c r="I7" t="n">
         <v>0.289848522400898</v>
       </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1302,6 +1429,9 @@
       <c r="I8" t="n">
         <v>0.162392732954532</v>
       </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1327,6 +1457,9 @@
       <c r="I9" t="n">
         <v>0.822095818131326</v>
       </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1485,9 @@
       <c r="I10" t="n">
         <v>0.274311650273678</v>
       </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1377,6 +1513,9 @@
       <c r="I11" t="n">
         <v>0.22326057241726</v>
       </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1402,6 +1541,9 @@
       <c r="I12" t="n">
         <v>0.275984389156039</v>
       </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1427,6 +1569,9 @@
       <c r="I13" t="n">
         <v>0.636006730229949</v>
       </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1452,6 +1597,9 @@
       <c r="I14" t="n">
         <v>0.705046119035675</v>
       </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1476,6 +1624,9 @@
       </c>
       <c r="I15" t="n">
         <v>0.199291603762629</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1520,6 +1671,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1549,6 +1703,9 @@
       <c r="I2" t="n">
         <v>0.151745812184685</v>
       </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1578,6 +1735,9 @@
       <c r="I3" t="n">
         <v>0.467913071268776</v>
       </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1607,6 +1767,9 @@
       <c r="I4" t="n">
         <v>0.226453117295471</v>
       </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1635,6 +1798,9 @@
       </c>
       <c r="I5" t="n">
         <v>0.125990864329807</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1679,6 +1845,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1708,6 +1877,9 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1737,6 +1909,9 @@
       <c r="I3" t="n">
         <v>0.255541431703593</v>
       </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1766,6 +1941,9 @@
       <c r="I4" t="n">
         <v>0.582388610598471</v>
       </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1795,6 +1973,9 @@
       <c r="I5" t="n">
         <v>0.24139650872818</v>
       </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1824,6 +2005,9 @@
       <c r="I6" t="n">
         <v>0.186058928218311</v>
       </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1853,6 +2037,9 @@
       <c r="I7" t="n">
         <v>0.290539912099716</v>
       </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1882,6 +2069,9 @@
       <c r="I8" t="n">
         <v>0.145099353894917</v>
       </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1911,6 +2101,9 @@
       <c r="I9" t="n">
         <v>0.260147113078997</v>
       </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1940,6 +2133,9 @@
       <c r="I10" t="n">
         <v>0.218444597384721</v>
       </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1968,6 +2164,9 @@
       </c>
       <c r="I11" t="n">
         <v>0.165732635602794</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2012,6 +2211,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2041,6 +2243,9 @@
       <c r="I2" t="n">
         <v>0.75</v>
       </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2070,6 +2275,9 @@
       <c r="I3" t="n">
         <v>0.177023787571455</v>
       </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2099,6 +2307,9 @@
       <c r="I4" t="n">
         <v>0.24988815670153</v>
       </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2128,6 +2339,9 @@
       <c r="I5" t="n">
         <v>0.315173899661434</v>
       </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2157,6 +2371,9 @@
       <c r="I6" t="n">
         <v>0.628785046728972</v>
       </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2186,6 +2403,9 @@
       <c r="I7" t="n">
         <v>0.137631875475376</v>
       </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2215,6 +2435,9 @@
       <c r="I8" t="n">
         <v>0.467058568314386</v>
       </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2244,6 +2467,9 @@
       <c r="I9" t="n">
         <v>0.266301939530286</v>
       </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2273,6 +2499,9 @@
       <c r="I10" t="n">
         <v>0.169257383735253</v>
       </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2302,6 +2531,9 @@
       <c r="I11" t="n">
         <v>0.373838955189794</v>
       </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2331,6 +2563,9 @@
       <c r="I12" t="n">
         <v>0.546991494621372</v>
       </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2360,6 +2595,9 @@
       <c r="I13" t="n">
         <v>0.435378947030273</v>
       </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2388,6 +2626,1977 @@
       </c>
       <c r="I14" t="n">
         <v>0.50060927911101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.23362249718058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.246724499436117</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.94592671647101</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.368240839558876</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.9653024911032</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.393060498220641</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.87545787545788</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.267922553636839</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.75238095238095</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.688095238095238</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.04284852142426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.260712130356065</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.06372549019608</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.51062091503268</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.30612244897959</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.661224489795918</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.11522904599165</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.235025449554628</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.79503105590062</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.598343685300207</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.43177976334219</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.286355952668437</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.81556416554289</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.226945520692861</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.77479579929988</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.591598599766628</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.14424190696824</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.190706984494706</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>469</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D19" t="n">
+        <v>480</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.24526770828723</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.540877951381205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.64119376772829</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.547064589242765</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>851</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.89489054139907</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.321654504599897</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>509</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.68261758691207</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.585327198364008</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="D23" t="n">
+        <v>382</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.08910095429432</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.257425079524527</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D24" t="n">
+        <v>211</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.61199294532628</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.451499118165785</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>330</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.13266761768902</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.548666739822232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.96740828766973</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.393481657533945</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.18528955372106</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.39509651790702</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.89932338554156</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.237415423192695</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.84258416742493</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.368516833484986</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.60863670160808</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.289848522400898</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.62392732954532</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.162392732954532</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.46628745439398</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.822095818131326</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.01742815301046</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.274311650273678</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G35" t="n">
+        <v>56</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.56282400692082</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.22326057241726</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B36" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.65590633493623</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.275984389156039</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.5440269209198</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.636006730229949</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.8201844761427</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.705046119035675</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.99291603762629</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.199291603762629</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>257</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.0622206852928</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.151745812184685</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D41" t="n">
+        <v>369</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.80747842761266</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.467913071268776</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="D42" t="n">
+        <v>203</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.71743740754566</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.226453117295471</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D43" t="n">
+        <v>279</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.38589950762787</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.125990864329807</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B44" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D44" t="n">
+        <v>194</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B45" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D45" t="n">
+        <v>179</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.27770715851796</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.255541431703593</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="D46" t="n">
+        <v>368</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.91194305299235</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.582388610598471</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B47" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="D47" t="n">
+        <v>239</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.2069825436409</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.24139650872818</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>162</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.86058928218311</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.186058928218311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B49" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>299</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.90539912099716</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.290539912099716</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="D50" t="n">
+        <v>211</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.32158966231866</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.145099353894917</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B51" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>236</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>56</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.04058845231599</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.260147113078997</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B52" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>166</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.09222298692361</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.218444597384721</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B53" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>212</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G53" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.16012844921956</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.165732635602794</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D54" t="n">
+        <v>982</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B55" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>553</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.77023787571455</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.177023787571455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B56" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.74921709691071</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.24988815670153</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B57" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="D57" t="n">
+        <v>992</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.89104339796861</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.315173899661434</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B58" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D58" t="n">
+        <v>583</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.14392523364486</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.628785046728972</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B59" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="D59" t="n">
+        <v>632</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.23868687927838</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.137631875475376</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D60" t="n">
+        <v>572</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.67058568314386</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.467058568314386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B61" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.46</v>
+      </c>
+      <c r="D61" t="n">
+        <v>348</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.728227153424</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.266301939530286</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="D62" t="n">
+        <v>316</v>
+      </c>
+      <c r="E62" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>56</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.18480168614677</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.169257383735253</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>166</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.12151686556938</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.373838955189794</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B64" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.73495747310686</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.546991494621372</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B65" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.74151578812109</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.435378947030273</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B66" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>376</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.50670207022111</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.50060927911101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -42,10 +42,10 @@
     <t xml:space="preserve">Altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">abundance</t>
+    <t xml:space="preserve">N1</t>
   </si>
   <si>
-    <t xml:space="preserve">eveness</t>
+    <t xml:space="preserve">N2</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23362249718058</v>
+        <v>1.51942420355039</v>
       </c>
       <c r="I2" t="n">
-        <v>0.246724499436117</v>
+        <v>1.24989015308802</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -472,10 +472,10 @@
         <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94592671647101</v>
+        <v>3.40415719954138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.368240839558876</v>
+        <v>2.81178270849273</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>2.40957388331014</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.9653024911032</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.393060498220641</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -520,10 +520,10 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.87545787545788</v>
+        <v>1.35613141338627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.267922553636839</v>
+        <v>1.1980198019802</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -590,10 +590,10 @@
         <v>80.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75238095238095</v>
+        <v>2.7257829134276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.688095238095238</v>
+        <v>2.4949083503055</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -614,10 +614,10 @@
         <v>63.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04284852142426</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.260712130356065</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -638,10 +638,10 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28571428571429</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -662,10 +662,10 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.06372549019608</v>
+        <v>1.31152341404742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.51062091503268</v>
+        <v>1.16551724137931</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -686,10 +686,10 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.30612244897959</v>
+        <v>2.3068953100124</v>
       </c>
       <c r="I6" t="n">
-        <v>0.661224489795918</v>
+        <v>1.92554410080183</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -712,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.11522904599165</v>
+        <v>2.58198460154254</v>
       </c>
       <c r="I7" t="n">
-        <v>0.235025449554628</v>
+        <v>2.26555441724244</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -740,10 +740,10 @@
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.79503105590062</v>
+        <v>1.228989209488</v>
       </c>
       <c r="I8" t="n">
-        <v>0.598343685300207</v>
+        <v>1.11076923076923</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -768,10 +768,10 @@
         <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.43177976334219</v>
+        <v>1.95526408007085</v>
       </c>
       <c r="I9" t="n">
-        <v>0.286355952668437</v>
+        <v>1.65606806986117</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -796,10 +796,10 @@
         <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81556416554289</v>
+        <v>2.67640951979241</v>
       </c>
       <c r="I10" t="n">
-        <v>0.226945520692861</v>
+        <v>1.96353100063555</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -824,10 +824,10 @@
         <v>56.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.57142857142857</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -835,27 +835,27 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B12" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77479579929988</v>
+        <v>1.29688576474384</v>
       </c>
       <c r="I12" t="n">
-        <v>0.591598599766628</v>
+        <v>1.15530211113807</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -863,27 +863,27 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B13" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14424190696824</v>
+        <v>2.13859472207503</v>
       </c>
       <c r="I13" t="n">
-        <v>0.190706984494706</v>
+        <v>1.77479579929988</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -958,7 +958,7 @@
         <v>133.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -990,10 +990,10 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24526770828723</v>
+        <v>2.77571727183795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.540877951381205</v>
+        <v>2.62099418096071</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -1022,10 +1022,10 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64119376772829</v>
+        <v>1.83710910646687</v>
       </c>
       <c r="I4" t="n">
-        <v>0.547064589242765</v>
+        <v>1.71668063704946</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.89489054139907</v>
+        <v>2.14704780483443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.321654504599897</v>
+        <v>2.0265916508652</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1086,10 +1086,10 @@
         <v>10.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.68261758691207</v>
+        <v>1.14987173540713</v>
       </c>
       <c r="I6" t="n">
-        <v>0.585327198364008</v>
+        <v>1.06481418815696</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1118,10 +1118,10 @@
         <v>31.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.08910095429432</v>
+        <v>2.66086704330599</v>
       </c>
       <c r="I7" t="n">
-        <v>0.257425079524527</v>
+        <v>2.39046794914465</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1150,10 +1150,10 @@
         <v>56.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.61199294532628</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.451499118165785</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1182,10 +1182,10 @@
         <v>26.6</v>
       </c>
       <c r="H9" t="n">
-        <v>7.13266761768902</v>
+        <v>1.67412507494802</v>
       </c>
       <c r="I9" t="n">
-        <v>0.548666739822232</v>
+        <v>1.49917981072555</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1284,10 +1284,10 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96740828766973</v>
+        <v>2.46445910732655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.393481657533945</v>
+        <v>2.10558407543216</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -1312,10 +1312,10 @@
         <v>63.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18528955372106</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.39509651790702</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1340,10 +1340,10 @@
         <v>59.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.89932338554156</v>
+        <v>1.08269622006869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.237415423192695</v>
+        <v>1.02990458770797</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -1368,10 +1368,10 @@
         <v>51.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84258416742493</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.368516833484986</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1396,10 +1396,10 @@
         <v>18.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.60863670160808</v>
+        <v>2.75025345862321</v>
       </c>
       <c r="I7" t="n">
-        <v>0.289848522400898</v>
+        <v>2.56197562133924</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -1424,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.62392732954532</v>
+        <v>2.21730382359849</v>
       </c>
       <c r="I8" t="n">
-        <v>0.162392732954532</v>
+        <v>1.67338111756845</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -1452,10 +1452,10 @@
         <v>10.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46628745439398</v>
+        <v>2.48630908928327</v>
       </c>
       <c r="I9" t="n">
-        <v>0.822095818131326</v>
+        <v>2.14614801717605</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1480,10 +1480,10 @@
         <v>31.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.01742815301046</v>
+        <v>3.43597504201389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.274311650273678</v>
+        <v>3.09563522463902</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1508,10 +1508,10 @@
         <v>56</v>
       </c>
       <c r="H11" t="n">
-        <v>1.56282400692082</v>
+        <v>2.10616881872088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.22326057241726</v>
+        <v>1.56828170094816</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1536,10 +1536,10 @@
         <v>56.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65590633493623</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.275984389156039</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -1547,27 +1547,27 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.31727</v>
+        <v>12.31686</v>
       </c>
       <c r="B13" t="n">
-        <v>78.93606</v>
+        <v>78.93538</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5440269209198</v>
+        <v>3.27128204711273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.636006730229949</v>
+        <v>2.84929061326523</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -1575,27 +1575,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B14" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8201844761427</v>
+        <v>1.93729347732999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.705046119035675</v>
+        <v>1.78123083214067</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -1603,27 +1603,27 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B15" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.99291603762629</v>
+        <v>2.95042969664599</v>
       </c>
       <c r="I15" t="n">
-        <v>0.199291603762629</v>
+        <v>2.5440269209198</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1698,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0622206852928</v>
+        <v>1.1744812059692</v>
       </c>
       <c r="I2" t="n">
-        <v>0.151745812184685</v>
+        <v>1.0642516552915</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -1730,10 +1730,10 @@
         <v>10.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.80747842761266</v>
+        <v>1.59360581523684</v>
       </c>
       <c r="I3" t="n">
-        <v>0.467913071268776</v>
+        <v>1.40975609756098</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1762,10 +1762,10 @@
         <v>31.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.71743740754566</v>
+        <v>2.22544747809351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.226453117295471</v>
+        <v>2.08929786022961</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -1794,10 +1794,10 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38589950762787</v>
+        <v>1.64310776515972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.125990864329807</v>
+        <v>1.3723891689346</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1904,10 +1904,10 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.27770715851796</v>
+        <v>1.55071534532916</v>
       </c>
       <c r="I3" t="n">
-        <v>0.255541431703593</v>
+        <v>1.29024309137883</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1936,10 +1936,10 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91194305299235</v>
+        <v>1.57788215413983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.582388610598471</v>
+        <v>1.39346464816103</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -1968,10 +1968,10 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2069825436409</v>
+        <v>1.49845168516859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.24139650872818</v>
+        <v>1.25231910946197</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -2000,10 +2000,10 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.86058928218311</v>
+        <v>2.63242122270509</v>
       </c>
       <c r="I6" t="n">
-        <v>0.186058928218311</v>
+        <v>2.20996226415094</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -2032,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.90539912099716</v>
+        <v>2.35642299387014</v>
       </c>
       <c r="I7" t="n">
-        <v>0.290539912099716</v>
+        <v>1.77324987176497</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -2064,10 +2064,10 @@
         <v>31.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32158966231866</v>
+        <v>2.54257340002504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.145099353894917</v>
+        <v>2.14103299498716</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -2096,10 +2096,10 @@
         <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04058845231599</v>
+        <v>1.14106537143524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.260147113078997</v>
+        <v>1.05071382847245</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -2128,10 +2128,10 @@
         <v>56.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09222298692361</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.218444597384721</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -2160,10 +2160,10 @@
         <v>26.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.16012844921956</v>
+        <v>1.40295819640046</v>
       </c>
       <c r="I11" t="n">
-        <v>0.165732635602794</v>
+        <v>1.16819625833413</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -2238,10 +2238,10 @@
         <v>133.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1.5691925832142</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75</v>
+        <v>1.38461538461538</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -2270,10 +2270,10 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.77023787571455</v>
+        <v>2.22691622198306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.177023787571455</v>
+        <v>1.86466165413534</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -2302,10 +2302,10 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74921709691071</v>
+        <v>1.12588330890433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.24988815670153</v>
+        <v>1.05220319174099</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -2334,10 +2334,10 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.89104339796861</v>
+        <v>1.94446447494602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.315173899661434</v>
+        <v>1.76950713956702</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -2366,10 +2366,10 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.14392523364486</v>
+        <v>3.36385943365234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.628785046728972</v>
+        <v>3.02085402184707</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -2398,10 +2398,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.23868687927838</v>
+        <v>1.45835600989616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.137631875475376</v>
+        <v>1.22995840051476</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -2430,10 +2430,10 @@
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.67058568314386</v>
+        <v>2.59322761969946</v>
       </c>
       <c r="I8" t="n">
-        <v>0.467058568314386</v>
+        <v>2.22278677826334</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -2462,10 +2462,10 @@
         <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.728227153424</v>
+        <v>2.75401964582572</v>
       </c>
       <c r="I9" t="n">
-        <v>0.266301939530286</v>
+        <v>2.48437700912948</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -2494,10 +2494,10 @@
         <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>1.18480168614677</v>
+        <v>1.46773093146641</v>
       </c>
       <c r="I10" t="n">
-        <v>0.169257383735253</v>
+        <v>1.19685294440236</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -2526,10 +2526,10 @@
         <v>56.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.12151686556938</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.373838955189794</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -2558,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.73495747310686</v>
+        <v>3.48494138336322</v>
       </c>
       <c r="I12" t="n">
-        <v>0.546991494621372</v>
+        <v>3.04024734959024</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -2569,31 +2569,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B13" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C13" t="n">
-        <v>9.88</v>
+        <v>8.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1862</v>
+        <v>376</v>
       </c>
       <c r="E13" t="n">
-        <v>15.98</v>
+        <v>12.88</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.74151578812109</v>
+        <v>3.01090449770105</v>
       </c>
       <c r="I13" t="n">
-        <v>0.435378947030273</v>
+        <v>2.61571807093295</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -2601,31 +2601,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B14" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C14" t="n">
-        <v>8.2</v>
+        <v>9.88</v>
       </c>
       <c r="D14" t="n">
-        <v>376</v>
+        <v>1862</v>
       </c>
       <c r="E14" t="n">
-        <v>12.88</v>
+        <v>15.98</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.50670207022111</v>
+        <v>2.12830923479802</v>
       </c>
       <c r="I14" t="n">
-        <v>0.50060927911101</v>
+        <v>1.74151578812109</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2692,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23362249718058</v>
+        <v>1.51942420355039</v>
       </c>
       <c r="I2" t="n">
-        <v>0.246724499436117</v>
+        <v>1.24989015308802</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -2716,10 +2716,10 @@
         <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94592671647101</v>
+        <v>3.40415719954138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.368240839558876</v>
+        <v>2.81178270849273</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2740,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>2.40957388331014</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.9653024911032</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.393060498220641</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -2764,10 +2764,10 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.87545787545788</v>
+        <v>1.35613141338627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.267922553636839</v>
+        <v>1.1980198019802</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -2788,10 +2788,10 @@
         <v>80.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75238095238095</v>
+        <v>2.7257829134276</v>
       </c>
       <c r="I6" t="n">
-        <v>0.688095238095238</v>
+        <v>2.4949083503055</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -2812,10 +2812,10 @@
         <v>63.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04284852142426</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.260712130356065</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -2836,10 +2836,10 @@
         <v>59.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28571428571429</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -2860,10 +2860,10 @@
         <v>51.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.06372549019608</v>
+        <v>1.31152341404742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.51062091503268</v>
+        <v>1.16551724137931</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -2884,10 +2884,10 @@
         <v>18.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.30612244897959</v>
+        <v>2.3068953100124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.661224489795918</v>
+        <v>1.92554410080183</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -2910,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.11522904599165</v>
+        <v>2.58198460154254</v>
       </c>
       <c r="I11" t="n">
-        <v>0.235025449554628</v>
+        <v>2.26555441724244</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -2938,10 +2938,10 @@
         <v>10.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.79503105590062</v>
+        <v>1.228989209488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.598343685300207</v>
+        <v>1.11076923076923</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -2966,10 +2966,10 @@
         <v>31.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43177976334219</v>
+        <v>1.95526408007085</v>
       </c>
       <c r="I13" t="n">
-        <v>0.286355952668437</v>
+        <v>1.65606806986117</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -2994,10 +2994,10 @@
         <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>1.81556416554289</v>
+        <v>2.67640951979241</v>
       </c>
       <c r="I14" t="n">
-        <v>0.226945520692861</v>
+        <v>1.96353100063555</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -3022,10 +3022,10 @@
         <v>56.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.57142857142857</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -3033,27 +3033,27 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B16" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77479579929988</v>
+        <v>1.29688576474384</v>
       </c>
       <c r="I16" t="n">
-        <v>0.591598599766628</v>
+        <v>1.15530211113807</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -3061,27 +3061,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B17" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="G17" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.14424190696824</v>
+        <v>2.13859472207503</v>
       </c>
       <c r="I17" t="n">
-        <v>0.190706984494706</v>
+        <v>1.77479579929988</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -3110,7 +3110,7 @@
         <v>133.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>80.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.24526770828723</v>
+        <v>2.77571727183795</v>
       </c>
       <c r="I19" t="n">
-        <v>0.540877951381205</v>
+        <v>2.62099418096071</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -3174,10 +3174,10 @@
         <v>59.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.64119376772829</v>
+        <v>1.83710910646687</v>
       </c>
       <c r="I20" t="n">
-        <v>0.547064589242765</v>
+        <v>1.71668063704946</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -3206,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.89489054139907</v>
+        <v>2.14704780483443</v>
       </c>
       <c r="I21" t="n">
-        <v>0.321654504599897</v>
+        <v>2.0265916508652</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -3238,10 +3238,10 @@
         <v>10.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.68261758691207</v>
+        <v>1.14987173540713</v>
       </c>
       <c r="I22" t="n">
-        <v>0.585327198364008</v>
+        <v>1.06481418815696</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -3270,10 +3270,10 @@
         <v>31.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08910095429432</v>
+        <v>2.66086704330599</v>
       </c>
       <c r="I23" t="n">
-        <v>0.257425079524527</v>
+        <v>2.39046794914465</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -3302,10 +3302,10 @@
         <v>56.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.61199294532628</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.451499118165785</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -3334,10 +3334,10 @@
         <v>26.6</v>
       </c>
       <c r="H25" t="n">
-        <v>7.13266761768902</v>
+        <v>1.67412507494802</v>
       </c>
       <c r="I25" t="n">
-        <v>0.548666739822232</v>
+        <v>1.49917981072555</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -3390,10 +3390,10 @@
         <v>80.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.96740828766973</v>
+        <v>2.46445910732655</v>
       </c>
       <c r="I27" t="n">
-        <v>0.393481657533945</v>
+        <v>2.10558407543216</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -3418,10 +3418,10 @@
         <v>63.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1.18528955372106</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.39509651790702</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
@@ -3446,10 +3446,10 @@
         <v>59.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.89932338554156</v>
+        <v>1.08269622006869</v>
       </c>
       <c r="I29" t="n">
-        <v>0.237415423192695</v>
+        <v>1.02990458770797</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3474,10 +3474,10 @@
         <v>51.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.84258416742493</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.368516833484986</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
@@ -3502,10 +3502,10 @@
         <v>18.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.60863670160808</v>
+        <v>2.75025345862321</v>
       </c>
       <c r="I31" t="n">
-        <v>0.289848522400898</v>
+        <v>2.56197562133924</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
@@ -3530,10 +3530,10 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.62392732954532</v>
+        <v>2.21730382359849</v>
       </c>
       <c r="I32" t="n">
-        <v>0.162392732954532</v>
+        <v>1.67338111756845</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -3558,10 +3558,10 @@
         <v>10.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46628745439398</v>
+        <v>2.48630908928327</v>
       </c>
       <c r="I33" t="n">
-        <v>0.822095818131326</v>
+        <v>2.14614801717605</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
@@ -3586,10 +3586,10 @@
         <v>31.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.01742815301046</v>
+        <v>3.43597504201389</v>
       </c>
       <c r="I34" t="n">
-        <v>0.274311650273678</v>
+        <v>3.09563522463902</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
@@ -3614,10 +3614,10 @@
         <v>56</v>
       </c>
       <c r="H35" t="n">
-        <v>1.56282400692082</v>
+        <v>2.10616881872088</v>
       </c>
       <c r="I35" t="n">
-        <v>0.22326057241726</v>
+        <v>1.56828170094816</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -3642,10 +3642,10 @@
         <v>56.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.65590633493623</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.275984389156039</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -3653,27 +3653,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.31727</v>
+        <v>12.31686</v>
       </c>
       <c r="B37" t="n">
-        <v>78.93606</v>
+        <v>78.93538</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5440269209198</v>
+        <v>3.27128204711273</v>
       </c>
       <c r="I37" t="n">
-        <v>0.636006730229949</v>
+        <v>2.84929061326523</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -3681,27 +3681,27 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B38" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="F38" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.8201844761427</v>
+        <v>1.93729347732999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.705046119035675</v>
+        <v>1.78123083214067</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
@@ -3709,27 +3709,27 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B39" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.99291603762629</v>
+        <v>2.95042969664599</v>
       </c>
       <c r="I39" t="n">
-        <v>0.199291603762629</v>
+        <v>2.5440269209198</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -3758,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0622206852928</v>
+        <v>1.1744812059692</v>
       </c>
       <c r="I40" t="n">
-        <v>0.151745812184685</v>
+        <v>1.0642516552915</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -3790,10 +3790,10 @@
         <v>10.7</v>
       </c>
       <c r="H41" t="n">
-        <v>2.80747842761266</v>
+        <v>1.59360581523684</v>
       </c>
       <c r="I41" t="n">
-        <v>0.467913071268776</v>
+        <v>1.40975609756098</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -3822,10 +3822,10 @@
         <v>31.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.71743740754566</v>
+        <v>2.22544747809351</v>
       </c>
       <c r="I42" t="n">
-        <v>0.226453117295471</v>
+        <v>2.08929786022961</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
@@ -3854,10 +3854,10 @@
         <v>26.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.38589950762787</v>
+        <v>1.64310776515972</v>
       </c>
       <c r="I43" t="n">
-        <v>0.125990864329807</v>
+        <v>1.3723891689346</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -3918,10 +3918,10 @@
         <v>80.3</v>
       </c>
       <c r="H45" t="n">
-        <v>1.27770715851796</v>
+        <v>1.55071534532916</v>
       </c>
       <c r="I45" t="n">
-        <v>0.255541431703593</v>
+        <v>1.29024309137883</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -3950,10 +3950,10 @@
         <v>59.6</v>
       </c>
       <c r="H46" t="n">
-        <v>2.91194305299235</v>
+        <v>1.57788215413983</v>
       </c>
       <c r="I46" t="n">
-        <v>0.582388610598471</v>
+        <v>1.39346464816103</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -3982,10 +3982,10 @@
         <v>51.7</v>
       </c>
       <c r="H47" t="n">
-        <v>1.2069825436409</v>
+        <v>1.49845168516859</v>
       </c>
       <c r="I47" t="n">
-        <v>0.24139650872818</v>
+        <v>1.25231910946197</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
@@ -4014,10 +4014,10 @@
         <v>18.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86058928218311</v>
+        <v>2.63242122270509</v>
       </c>
       <c r="I48" t="n">
-        <v>0.186058928218311</v>
+        <v>2.20996226415094</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
@@ -4046,10 +4046,10 @@
         <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.90539912099716</v>
+        <v>2.35642299387014</v>
       </c>
       <c r="I49" t="n">
-        <v>0.290539912099716</v>
+        <v>1.77324987176497</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -4078,10 +4078,10 @@
         <v>31.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.32158966231866</v>
+        <v>2.54257340002504</v>
       </c>
       <c r="I50" t="n">
-        <v>0.145099353894917</v>
+        <v>2.14103299498716</v>
       </c>
       <c r="J50" t="s">
         <v>15</v>
@@ -4110,10 +4110,10 @@
         <v>56</v>
       </c>
       <c r="H51" t="n">
-        <v>1.04058845231599</v>
+        <v>1.14106537143524</v>
       </c>
       <c r="I51" t="n">
-        <v>0.260147113078997</v>
+        <v>1.05071382847245</v>
       </c>
       <c r="J51" t="s">
         <v>15</v>
@@ -4142,10 +4142,10 @@
         <v>56.4</v>
       </c>
       <c r="H52" t="n">
-        <v>1.09222298692361</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.218444597384721</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -4174,10 +4174,10 @@
         <v>26.6</v>
       </c>
       <c r="H53" t="n">
-        <v>1.16012844921956</v>
+        <v>1.40295819640046</v>
       </c>
       <c r="I53" t="n">
-        <v>0.165732635602794</v>
+        <v>1.16819625833413</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -4206,10 +4206,10 @@
         <v>133.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>1.5691925832142</v>
       </c>
       <c r="I54" t="n">
-        <v>0.75</v>
+        <v>1.38461538461538</v>
       </c>
       <c r="J54" t="s">
         <v>16</v>
@@ -4238,10 +4238,10 @@
         <v>80.3</v>
       </c>
       <c r="H55" t="n">
-        <v>1.77023787571455</v>
+        <v>2.22691622198306</v>
       </c>
       <c r="I55" t="n">
-        <v>0.177023787571455</v>
+        <v>1.86466165413534</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -4270,10 +4270,10 @@
         <v>59.6</v>
       </c>
       <c r="H56" t="n">
-        <v>1.74921709691071</v>
+        <v>1.12588330890433</v>
       </c>
       <c r="I56" t="n">
-        <v>0.24988815670153</v>
+        <v>1.05220319174099</v>
       </c>
       <c r="J56" t="s">
         <v>16</v>
@@ -4302,10 +4302,10 @@
         <v>51.7</v>
       </c>
       <c r="H57" t="n">
-        <v>1.89104339796861</v>
+        <v>1.94446447494602</v>
       </c>
       <c r="I57" t="n">
-        <v>0.315173899661434</v>
+        <v>1.76950713956702</v>
       </c>
       <c r="J57" t="s">
         <v>16</v>
@@ -4334,10 +4334,10 @@
         <v>18.7</v>
       </c>
       <c r="H58" t="n">
-        <v>3.14392523364486</v>
+        <v>3.36385943365234</v>
       </c>
       <c r="I58" t="n">
-        <v>0.628785046728972</v>
+        <v>3.02085402184707</v>
       </c>
       <c r="J58" t="s">
         <v>16</v>
@@ -4366,10 +4366,10 @@
         <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>1.23868687927838</v>
+        <v>1.45835600989616</v>
       </c>
       <c r="I59" t="n">
-        <v>0.137631875475376</v>
+        <v>1.22995840051476</v>
       </c>
       <c r="J59" t="s">
         <v>16</v>
@@ -4398,10 +4398,10 @@
         <v>10.7</v>
       </c>
       <c r="H60" t="n">
-        <v>4.67058568314386</v>
+        <v>2.59322761969946</v>
       </c>
       <c r="I60" t="n">
-        <v>0.467058568314386</v>
+        <v>2.22278677826334</v>
       </c>
       <c r="J60" t="s">
         <v>16</v>
@@ -4430,10 +4430,10 @@
         <v>31.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.728227153424</v>
+        <v>2.75401964582572</v>
       </c>
       <c r="I61" t="n">
-        <v>0.266301939530286</v>
+        <v>2.48437700912948</v>
       </c>
       <c r="J61" t="s">
         <v>16</v>
@@ -4462,10 +4462,10 @@
         <v>56</v>
       </c>
       <c r="H62" t="n">
-        <v>1.18480168614677</v>
+        <v>1.46773093146641</v>
       </c>
       <c r="I62" t="n">
-        <v>0.169257383735253</v>
+        <v>1.19685294440236</v>
       </c>
       <c r="J62" t="s">
         <v>16</v>
@@ -4494,10 +4494,10 @@
         <v>56.4</v>
       </c>
       <c r="H63" t="n">
-        <v>1.12151686556938</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.373838955189794</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
@@ -4526,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>2.73495747310686</v>
+        <v>3.48494138336322</v>
       </c>
       <c r="I64" t="n">
-        <v>0.546991494621372</v>
+        <v>3.04024734959024</v>
       </c>
       <c r="J64" t="s">
         <v>16</v>
@@ -4537,31 +4537,31 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B65" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C65" t="n">
-        <v>9.88</v>
+        <v>8.2</v>
       </c>
       <c r="D65" t="n">
-        <v>1862</v>
+        <v>376</v>
       </c>
       <c r="E65" t="n">
-        <v>15.98</v>
+        <v>12.88</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H65" t="n">
-        <v>1.74151578812109</v>
+        <v>3.01090449770105</v>
       </c>
       <c r="I65" t="n">
-        <v>0.435378947030273</v>
+        <v>2.61571807093295</v>
       </c>
       <c r="J65" t="s">
         <v>16</v>
@@ -4569,31 +4569,31 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B66" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C66" t="n">
-        <v>8.2</v>
+        <v>9.88</v>
       </c>
       <c r="D66" t="n">
-        <v>376</v>
+        <v>1862</v>
       </c>
       <c r="E66" t="n">
-        <v>12.88</v>
+        <v>15.98</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>5.50670207022111</v>
+        <v>2.12830923479802</v>
       </c>
       <c r="I66" t="n">
-        <v>0.50060927911101</v>
+        <v>1.74151578812109</v>
       </c>
       <c r="J66" t="s">
         <v>16</v>

--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">lon</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abundance</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -432,6 +435,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -453,8 +459,11 @@
       <c r="I2" t="n">
         <v>1.24989015308802</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
+      <c r="J2" t="n">
+        <v>1365</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -477,8 +486,11 @@
       <c r="I3" t="n">
         <v>2.81178270849273</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="J3" t="n">
+        <v>840</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -501,8 +513,11 @@
       <c r="I4" t="n">
         <v>1.9653024911032</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="J4" t="n">
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -525,8 +540,11 @@
       <c r="I5" t="n">
         <v>1.1980198019802</v>
       </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -574,6 +592,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -595,8 +616,11 @@
       <c r="I2" t="n">
         <v>2.4949083503055</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J2" t="n">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -619,8 +643,11 @@
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
+      <c r="J3" t="n">
+        <v>298</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -643,8 +670,11 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
+      <c r="J4" t="n">
+        <v>298</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -667,8 +697,11 @@
       <c r="I5" t="n">
         <v>1.16551724137931</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
+      <c r="J5" t="n">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -691,8 +724,11 @@
       <c r="I6" t="n">
         <v>1.92554410080183</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
+      <c r="J6" t="n">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -717,8 +753,11 @@
       <c r="I7" t="n">
         <v>2.26555441724244</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
+      <c r="J7" t="n">
+        <v>2075</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -745,8 +784,11 @@
       <c r="I8" t="n">
         <v>1.11076923076923</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
+      <c r="J8" t="n">
+        <v>304</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -773,8 +815,11 @@
       <c r="I9" t="n">
         <v>1.65606806986117</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
+      <c r="J9" t="n">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -801,8 +846,11 @@
       <c r="I10" t="n">
         <v>1.96353100063555</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
+      <c r="J10" t="n">
+        <v>1334</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -829,8 +877,11 @@
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -857,8 +908,11 @@
       <c r="I12" t="n">
         <v>1.15530211113807</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
+      <c r="J12" t="n">
+        <v>1104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +939,11 @@
       <c r="I13" t="n">
         <v>1.77479579929988</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
+      <c r="J13" t="n">
+        <v>312</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -934,6 +991,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -963,8 +1023,11 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -995,8 +1058,11 @@
       <c r="I3" t="n">
         <v>2.62099418096071</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="J3" t="n">
+        <v>587</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1027,8 +1093,11 @@
       <c r="I4" t="n">
         <v>1.71668063704946</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
+      <c r="J4" t="n">
+        <v>576</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1059,8 +1128,11 @@
       <c r="I5" t="n">
         <v>2.0265916508652</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
+      <c r="J5" t="n">
+        <v>12820</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1091,8 +1163,11 @@
       <c r="I6" t="n">
         <v>1.06481418815696</v>
       </c>
-      <c r="J6" t="s">
-        <v>12</v>
+      <c r="J6" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1123,8 +1198,11 @@
       <c r="I7" t="n">
         <v>2.39046794914465</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
+      <c r="J7" t="n">
+        <v>268</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1155,8 +1233,11 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
+      <c r="J8" t="n">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1187,8 +1268,11 @@
       <c r="I9" t="n">
         <v>1.49917981072555</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
+      <c r="J9" t="n">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1236,6 +1320,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1261,8 +1348,11 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1289,8 +1379,11 @@
       <c r="I3" t="n">
         <v>2.10558407543216</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
+      <c r="J3" t="n">
+        <v>317</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1317,8 +1410,11 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
+      <c r="J4" t="n">
+        <v>362</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1345,8 +1441,11 @@
       <c r="I5" t="n">
         <v>1.02990458770797</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
+      <c r="J5" t="n">
+        <v>1494</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1373,8 +1472,11 @@
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>13</v>
+      <c r="J6" t="n">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1401,8 +1503,11 @@
       <c r="I7" t="n">
         <v>2.56197562133924</v>
       </c>
-      <c r="J7" t="s">
-        <v>13</v>
+      <c r="J7" t="n">
+        <v>476</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1429,8 +1534,11 @@
       <c r="I8" t="n">
         <v>1.67338111756845</v>
       </c>
-      <c r="J8" t="s">
-        <v>13</v>
+      <c r="J8" t="n">
+        <v>4625</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1457,8 +1565,11 @@
       <c r="I9" t="n">
         <v>2.14614801717605</v>
       </c>
-      <c r="J9" t="s">
-        <v>13</v>
+      <c r="J9" t="n">
+        <v>357</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1485,8 +1596,11 @@
       <c r="I10" t="n">
         <v>3.09563522463902</v>
       </c>
-      <c r="J10" t="s">
-        <v>13</v>
+      <c r="J10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1513,8 +1627,11 @@
       <c r="I11" t="n">
         <v>1.56828170094816</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
+      <c r="J11" t="n">
+        <v>3412</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1541,8 +1658,11 @@
       <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>13</v>
+      <c r="J12" t="n">
+        <v>410</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1569,8 +1689,11 @@
       <c r="I13" t="n">
         <v>2.84929061326523</v>
       </c>
-      <c r="J13" t="s">
-        <v>13</v>
+      <c r="J13" t="n">
+        <v>12213</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1597,8 +1720,11 @@
       <c r="I14" t="n">
         <v>1.78123083214067</v>
       </c>
-      <c r="J14" t="s">
-        <v>13</v>
+      <c r="J14" t="n">
+        <v>4224</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1625,8 +1751,11 @@
       <c r="I15" t="n">
         <v>2.5440269209198</v>
       </c>
-      <c r="J15" t="s">
-        <v>13</v>
+      <c r="J15" t="n">
+        <v>8064</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1674,6 +1803,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1703,8 +1835,11 @@
       <c r="I2" t="n">
         <v>1.0642516552915</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="J2" t="n">
+        <v>28974</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1735,8 +1870,11 @@
       <c r="I3" t="n">
         <v>1.40975609756098</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="J3" t="n">
+        <v>1088</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1767,8 +1905,11 @@
       <c r="I4" t="n">
         <v>2.08929786022961</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
+      <c r="J4" t="n">
+        <v>2852</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1799,8 +1940,11 @@
       <c r="I5" t="n">
         <v>1.3723891689346</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
+      <c r="J5" t="n">
+        <v>9438</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1848,6 +1992,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1877,8 +2024,11 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1909,8 +2059,11 @@
       <c r="I3" t="n">
         <v>1.29024309137883</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="J3" t="n">
+        <v>389</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1941,8 +2094,11 @@
       <c r="I4" t="n">
         <v>1.39346464816103</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
+      <c r="J4" t="n">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1973,8 +2129,11 @@
       <c r="I5" t="n">
         <v>1.25231910946197</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -2005,8 +2164,11 @@
       <c r="I6" t="n">
         <v>2.20996226415094</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
+      <c r="J6" t="n">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -2037,8 +2199,11 @@
       <c r="I7" t="n">
         <v>1.77324987176497</v>
       </c>
-      <c r="J7" t="s">
-        <v>15</v>
+      <c r="J7" t="n">
+        <v>2548</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -2069,8 +2234,11 @@
       <c r="I8" t="n">
         <v>2.14103299498716</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
+      <c r="J8" t="n">
+        <v>586</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -2101,8 +2269,11 @@
       <c r="I9" t="n">
         <v>1.05071382847245</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
+      <c r="J9" t="n">
+        <v>3253</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -2133,8 +2304,11 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>15</v>
+      <c r="J10" t="n">
+        <v>2224</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -2165,8 +2339,11 @@
       <c r="I11" t="n">
         <v>1.16819625833413</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
+      <c r="J11" t="n">
+        <v>8188</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2214,6 +2391,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2243,8 +2423,11 @@
       <c r="I2" t="n">
         <v>1.38461538461538</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -2275,8 +2458,11 @@
       <c r="I3" t="n">
         <v>1.86466165413534</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
+      <c r="J3" t="n">
+        <v>248</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -2307,8 +2493,11 @@
       <c r="I4" t="n">
         <v>1.05220319174099</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
+      <c r="J4" t="n">
+        <v>275</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2339,8 +2528,11 @@
       <c r="I5" t="n">
         <v>1.76950713956702</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
+      <c r="J5" t="n">
+        <v>392</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2371,8 +2563,11 @@
       <c r="I6" t="n">
         <v>3.02085402184707</v>
       </c>
-      <c r="J6" t="s">
-        <v>16</v>
+      <c r="J6" t="n">
+        <v>156</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -2403,8 +2598,11 @@
       <c r="I7" t="n">
         <v>1.22995840051476</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
+      <c r="J7" t="n">
+        <v>19936</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -2435,8 +2633,11 @@
       <c r="I8" t="n">
         <v>2.22278677826334</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
+      <c r="J8" t="n">
+        <v>4615</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -2467,8 +2668,11 @@
       <c r="I9" t="n">
         <v>2.48437700912948</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
+      <c r="J9" t="n">
+        <v>278</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2499,8 +2703,11 @@
       <c r="I10" t="n">
         <v>1.19685294440236</v>
       </c>
-      <c r="J10" t="s">
-        <v>16</v>
+      <c r="J10" t="n">
+        <v>5480</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2531,8 +2738,11 @@
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
+      <c r="J11" t="n">
+        <v>1891</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2563,8 +2773,11 @@
       <c r="I12" t="n">
         <v>3.04024734959024</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
+      <c r="J12" t="n">
+        <v>14936</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2595,8 +2808,11 @@
       <c r="I13" t="n">
         <v>2.61571807093295</v>
       </c>
-      <c r="J13" t="s">
-        <v>16</v>
+      <c r="J13" t="n">
+        <v>1565</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2627,8 +2843,11 @@
       <c r="I14" t="n">
         <v>1.74151578812109</v>
       </c>
-      <c r="J14" t="s">
-        <v>16</v>
+      <c r="J14" t="n">
+        <v>48974</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2676,6 +2895,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2697,8 +2919,11 @@
       <c r="I2" t="n">
         <v>1.24989015308802</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
+      <c r="J2" t="n">
+        <v>1365</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2721,8 +2946,11 @@
       <c r="I3" t="n">
         <v>2.81178270849273</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="J3" t="n">
+        <v>840</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -2745,8 +2973,11 @@
       <c r="I4" t="n">
         <v>1.9653024911032</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="J4" t="n">
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -2769,8 +3000,11 @@
       <c r="I5" t="n">
         <v>1.1980198019802</v>
       </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -2793,8 +3027,11 @@
       <c r="I6" t="n">
         <v>2.4949083503055</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
+      <c r="J6" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -2817,8 +3054,11 @@
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
+      <c r="J7" t="n">
+        <v>298</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2841,8 +3081,11 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
+      <c r="J8" t="n">
+        <v>298</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -2865,8 +3108,11 @@
       <c r="I9" t="n">
         <v>1.16551724137931</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
+      <c r="J9" t="n">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2889,8 +3135,11 @@
       <c r="I10" t="n">
         <v>1.92554410080183</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
+      <c r="J10" t="n">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -2915,8 +3164,11 @@
       <c r="I11" t="n">
         <v>2.26555441724244</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
+      <c r="J11" t="n">
+        <v>2075</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2943,8 +3195,11 @@
       <c r="I12" t="n">
         <v>1.11076923076923</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
+      <c r="J12" t="n">
+        <v>304</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -2971,8 +3226,11 @@
       <c r="I13" t="n">
         <v>1.65606806986117</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
+      <c r="J13" t="n">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2999,8 +3257,11 @@
       <c r="I14" t="n">
         <v>1.96353100063555</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
+      <c r="J14" t="n">
+        <v>1334</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -3027,8 +3288,11 @@
       <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -3055,8 +3319,11 @@
       <c r="I16" t="n">
         <v>1.15530211113807</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
+      <c r="J16" t="n">
+        <v>1104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -3083,8 +3350,11 @@
       <c r="I17" t="n">
         <v>1.77479579929988</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
+      <c r="J17" t="n">
+        <v>312</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -3115,8 +3385,11 @@
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
-        <v>12</v>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -3147,8 +3420,11 @@
       <c r="I19" t="n">
         <v>2.62099418096071</v>
       </c>
-      <c r="J19" t="s">
-        <v>12</v>
+      <c r="J19" t="n">
+        <v>587</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3179,8 +3455,11 @@
       <c r="I20" t="n">
         <v>1.71668063704946</v>
       </c>
-      <c r="J20" t="s">
-        <v>12</v>
+      <c r="J20" t="n">
+        <v>576</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3211,8 +3490,11 @@
       <c r="I21" t="n">
         <v>2.0265916508652</v>
       </c>
-      <c r="J21" t="s">
-        <v>12</v>
+      <c r="J21" t="n">
+        <v>12820</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3243,8 +3525,11 @@
       <c r="I22" t="n">
         <v>1.06481418815696</v>
       </c>
-      <c r="J22" t="s">
-        <v>12</v>
+      <c r="J22" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3275,8 +3560,11 @@
       <c r="I23" t="n">
         <v>2.39046794914465</v>
       </c>
-      <c r="J23" t="s">
-        <v>12</v>
+      <c r="J23" t="n">
+        <v>268</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -3307,8 +3595,11 @@
       <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
-        <v>12</v>
+      <c r="J24" t="n">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -3339,8 +3630,11 @@
       <c r="I25" t="n">
         <v>1.49917981072555</v>
       </c>
-      <c r="J25" t="s">
-        <v>12</v>
+      <c r="J25" t="n">
+        <v>109</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -3367,8 +3661,11 @@
       <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>13</v>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -3395,8 +3692,11 @@
       <c r="I27" t="n">
         <v>2.10558407543216</v>
       </c>
-      <c r="J27" t="s">
-        <v>13</v>
+      <c r="J27" t="n">
+        <v>317</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -3423,8 +3723,11 @@
       <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
-        <v>13</v>
+      <c r="J28" t="n">
+        <v>362</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -3451,8 +3754,11 @@
       <c r="I29" t="n">
         <v>1.02990458770797</v>
       </c>
-      <c r="J29" t="s">
-        <v>13</v>
+      <c r="J29" t="n">
+        <v>1494</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -3479,8 +3785,11 @@
       <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
-        <v>13</v>
+      <c r="J30" t="n">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -3507,8 +3816,11 @@
       <c r="I31" t="n">
         <v>2.56197562133924</v>
       </c>
-      <c r="J31" t="s">
-        <v>13</v>
+      <c r="J31" t="n">
+        <v>476</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -3535,8 +3847,11 @@
       <c r="I32" t="n">
         <v>1.67338111756845</v>
       </c>
-      <c r="J32" t="s">
-        <v>13</v>
+      <c r="J32" t="n">
+        <v>4625</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -3563,8 +3878,11 @@
       <c r="I33" t="n">
         <v>2.14614801717605</v>
       </c>
-      <c r="J33" t="s">
-        <v>13</v>
+      <c r="J33" t="n">
+        <v>357</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -3591,8 +3909,11 @@
       <c r="I34" t="n">
         <v>3.09563522463902</v>
       </c>
-      <c r="J34" t="s">
-        <v>13</v>
+      <c r="J34" t="n">
+        <v>1130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -3619,8 +3940,11 @@
       <c r="I35" t="n">
         <v>1.56828170094816</v>
       </c>
-      <c r="J35" t="s">
-        <v>13</v>
+      <c r="J35" t="n">
+        <v>3412</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -3647,8 +3971,11 @@
       <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>13</v>
+      <c r="J36" t="n">
+        <v>410</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -3675,8 +4002,11 @@
       <c r="I37" t="n">
         <v>2.84929061326523</v>
       </c>
-      <c r="J37" t="s">
-        <v>13</v>
+      <c r="J37" t="n">
+        <v>12213</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -3703,8 +4033,11 @@
       <c r="I38" t="n">
         <v>1.78123083214067</v>
       </c>
-      <c r="J38" t="s">
-        <v>13</v>
+      <c r="J38" t="n">
+        <v>4224</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -3731,8 +4064,11 @@
       <c r="I39" t="n">
         <v>2.5440269209198</v>
       </c>
-      <c r="J39" t="s">
-        <v>13</v>
+      <c r="J39" t="n">
+        <v>8064</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -3763,8 +4099,11 @@
       <c r="I40" t="n">
         <v>1.0642516552915</v>
       </c>
-      <c r="J40" t="s">
-        <v>14</v>
+      <c r="J40" t="n">
+        <v>28974</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3795,8 +4134,11 @@
       <c r="I41" t="n">
         <v>1.40975609756098</v>
       </c>
-      <c r="J41" t="s">
-        <v>14</v>
+      <c r="J41" t="n">
+        <v>1088</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3827,8 +4169,11 @@
       <c r="I42" t="n">
         <v>2.08929786022961</v>
       </c>
-      <c r="J42" t="s">
-        <v>14</v>
+      <c r="J42" t="n">
+        <v>2852</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3859,8 +4204,11 @@
       <c r="I43" t="n">
         <v>1.3723891689346</v>
       </c>
-      <c r="J43" t="s">
-        <v>14</v>
+      <c r="J43" t="n">
+        <v>9438</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3891,8 +4239,11 @@
       <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="s">
-        <v>15</v>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3923,8 +4274,11 @@
       <c r="I45" t="n">
         <v>1.29024309137883</v>
       </c>
-      <c r="J45" t="s">
-        <v>15</v>
+      <c r="J45" t="n">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -3955,8 +4309,11 @@
       <c r="I46" t="n">
         <v>1.39346464816103</v>
       </c>
-      <c r="J46" t="s">
-        <v>15</v>
+      <c r="J46" t="n">
+        <v>241</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -3987,8 +4344,11 @@
       <c r="I47" t="n">
         <v>1.25231910946197</v>
       </c>
-      <c r="J47" t="s">
-        <v>15</v>
+      <c r="J47" t="n">
+        <v>45</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4019,8 +4379,11 @@
       <c r="I48" t="n">
         <v>2.20996226415094</v>
       </c>
-      <c r="J48" t="s">
-        <v>15</v>
+      <c r="J48" t="n">
+        <v>121</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4051,8 +4414,11 @@
       <c r="I49" t="n">
         <v>1.77324987176497</v>
       </c>
-      <c r="J49" t="s">
-        <v>15</v>
+      <c r="J49" t="n">
+        <v>2548</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4083,8 +4449,11 @@
       <c r="I50" t="n">
         <v>2.14103299498716</v>
       </c>
-      <c r="J50" t="s">
-        <v>15</v>
+      <c r="J50" t="n">
+        <v>586</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4115,8 +4484,11 @@
       <c r="I51" t="n">
         <v>1.05071382847245</v>
       </c>
-      <c r="J51" t="s">
-        <v>15</v>
+      <c r="J51" t="n">
+        <v>3253</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4147,8 +4519,11 @@
       <c r="I52" t="n">
         <v>1</v>
       </c>
-      <c r="J52" t="s">
-        <v>15</v>
+      <c r="J52" t="n">
+        <v>2224</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -4179,8 +4554,11 @@
       <c r="I53" t="n">
         <v>1.16819625833413</v>
       </c>
-      <c r="J53" t="s">
-        <v>15</v>
+      <c r="J53" t="n">
+        <v>8188</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4211,8 +4589,11 @@
       <c r="I54" t="n">
         <v>1.38461538461538</v>
       </c>
-      <c r="J54" t="s">
-        <v>16</v>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -4243,8 +4624,11 @@
       <c r="I55" t="n">
         <v>1.86466165413534</v>
       </c>
-      <c r="J55" t="s">
-        <v>16</v>
+      <c r="J55" t="n">
+        <v>248</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -4275,8 +4659,11 @@
       <c r="I56" t="n">
         <v>1.05220319174099</v>
       </c>
-      <c r="J56" t="s">
-        <v>16</v>
+      <c r="J56" t="n">
+        <v>275</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -4307,8 +4694,11 @@
       <c r="I57" t="n">
         <v>1.76950713956702</v>
       </c>
-      <c r="J57" t="s">
-        <v>16</v>
+      <c r="J57" t="n">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -4339,8 +4729,11 @@
       <c r="I58" t="n">
         <v>3.02085402184707</v>
       </c>
-      <c r="J58" t="s">
-        <v>16</v>
+      <c r="J58" t="n">
+        <v>156</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -4371,8 +4764,11 @@
       <c r="I59" t="n">
         <v>1.22995840051476</v>
       </c>
-      <c r="J59" t="s">
-        <v>16</v>
+      <c r="J59" t="n">
+        <v>19936</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -4403,8 +4799,11 @@
       <c r="I60" t="n">
         <v>2.22278677826334</v>
       </c>
-      <c r="J60" t="s">
-        <v>16</v>
+      <c r="J60" t="n">
+        <v>4615</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -4435,8 +4834,11 @@
       <c r="I61" t="n">
         <v>2.48437700912948</v>
       </c>
-      <c r="J61" t="s">
-        <v>16</v>
+      <c r="J61" t="n">
+        <v>278</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -4467,8 +4869,11 @@
       <c r="I62" t="n">
         <v>1.19685294440236</v>
       </c>
-      <c r="J62" t="s">
-        <v>16</v>
+      <c r="J62" t="n">
+        <v>5480</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -4499,8 +4904,11 @@
       <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="J63" t="s">
-        <v>16</v>
+      <c r="J63" t="n">
+        <v>1891</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -4531,8 +4939,11 @@
       <c r="I64" t="n">
         <v>3.04024734959024</v>
       </c>
-      <c r="J64" t="s">
-        <v>16</v>
+      <c r="J64" t="n">
+        <v>14936</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -4563,8 +4974,11 @@
       <c r="I65" t="n">
         <v>2.61571807093295</v>
       </c>
-      <c r="J65" t="s">
-        <v>16</v>
+      <c r="J65" t="n">
+        <v>1565</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -4595,8 +5009,11 @@
       <c r="I66" t="n">
         <v>1.74151578812109</v>
       </c>
-      <c r="J66" t="s">
-        <v>16</v>
+      <c r="J66" t="n">
+        <v>48974</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -454,13 +454,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51942420355039</v>
+        <v>1.53365745025076</v>
       </c>
       <c r="I2" t="n">
-        <v>1.24989015308802</v>
+        <v>1.23362249718058</v>
       </c>
       <c r="J2" t="n">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -481,13 +481,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>3.40415719954138</v>
+        <v>4.42135570429699</v>
       </c>
       <c r="I3" t="n">
-        <v>2.81178270849273</v>
+        <v>2.94592671647101</v>
       </c>
       <c r="J3" t="n">
-        <v>840</v>
+        <v>728</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -535,13 +535,13 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35613141338627</v>
+        <v>2.90311074927064</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1980198019802</v>
+        <v>1.87545787545788</v>
       </c>
       <c r="J5" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -611,13 +611,13 @@
         <v>80.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7257829134276</v>
+        <v>3.08794870829683</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4949083503055</v>
+        <v>2.75238095238095</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -638,13 +638,13 @@
         <v>63.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>1.13218859989063</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.04284852142426</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -665,13 +665,13 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2.92572655996732</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -692,13 +692,13 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.31152341404742</v>
+        <v>3.91177515966925</v>
       </c>
       <c r="I5" t="n">
-        <v>1.16551724137931</v>
+        <v>3.06372549019608</v>
       </c>
       <c r="J5" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -719,13 +719,13 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3068953100124</v>
+        <v>3.91602349177445</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92554410080183</v>
+        <v>3.30612244897959</v>
       </c>
       <c r="J6" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -748,13 +748,13 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58198460154254</v>
+        <v>3.00570961721268</v>
       </c>
       <c r="I7" t="n">
-        <v>2.26555441724244</v>
+        <v>2.11522904599165</v>
       </c>
       <c r="J7" t="n">
-        <v>2075</v>
+        <v>1675</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -779,13 +779,13 @@
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.228989209488</v>
+        <v>2.12330679576051</v>
       </c>
       <c r="I8" t="n">
-        <v>1.11076923076923</v>
+        <v>1.79503105590062</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -810,13 +810,13 @@
         <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95526408007085</v>
+        <v>1.97829220236952</v>
       </c>
       <c r="I9" t="n">
-        <v>1.65606806986117</v>
+        <v>1.43177976334219</v>
       </c>
       <c r="J9" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -841,13 +841,13 @@
         <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>2.67640951979241</v>
+        <v>2.67544182052594</v>
       </c>
       <c r="I10" t="n">
-        <v>1.96353100063555</v>
+        <v>1.81556416554289</v>
       </c>
       <c r="J10" t="n">
-        <v>1334</v>
+        <v>1270</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -872,13 +872,13 @@
         <v>56.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2.74945927399721</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -886,30 +886,30 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B12" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.29688576474384</v>
+        <v>2.13859472207503</v>
       </c>
       <c r="I12" t="n">
-        <v>1.15530211113807</v>
+        <v>1.77479579929988</v>
       </c>
       <c r="J12" t="n">
-        <v>1104</v>
+        <v>312</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -917,30 +917,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B13" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.13859472207503</v>
+        <v>1.40832646937165</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77479579929988</v>
+        <v>1.14424190696824</v>
       </c>
       <c r="J13" t="n">
-        <v>312</v>
+        <v>1096</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -1018,10 +1018,10 @@
         <v>133.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -1053,13 +1053,13 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.77571727183795</v>
+        <v>3.76331698954856</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62099418096071</v>
+        <v>3.24526770828723</v>
       </c>
       <c r="J3" t="n">
-        <v>587</v>
+        <v>469</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -1088,13 +1088,13 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83710910646687</v>
+        <v>2.02291925093944</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71668063704946</v>
+        <v>1.64119376772829</v>
       </c>
       <c r="J4" t="n">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -1123,13 +1123,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14704780483443</v>
+        <v>3.80984680425868</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0265916508652</v>
+        <v>2.89489054139907</v>
       </c>
       <c r="J5" t="n">
-        <v>12820</v>
+        <v>12243</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -1158,13 +1158,13 @@
         <v>10.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.14987173540713</v>
+        <v>5.68845507482931</v>
       </c>
       <c r="I6" t="n">
-        <v>1.06481418815696</v>
+        <v>4.68261758691207</v>
       </c>
       <c r="J6" t="n">
-        <v>1273</v>
+        <v>856</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -1193,13 +1193,13 @@
         <v>31.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66086704330599</v>
+        <v>5.37144107818333</v>
       </c>
       <c r="I7" t="n">
-        <v>2.39046794914465</v>
+        <v>3.08910095429432</v>
       </c>
       <c r="J7" t="n">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -1228,13 +1228,13 @@
         <v>56.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5.02772031608155</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3.61199294532628</v>
       </c>
       <c r="J8" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1263,13 +1263,13 @@
         <v>26.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.67412507494802</v>
+        <v>8.7490466214598</v>
       </c>
       <c r="I9" t="n">
-        <v>1.49917981072555</v>
+        <v>7.13266761768902</v>
       </c>
       <c r="J9" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -1374,13 +1374,13 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.46445910732655</v>
+        <v>2.50449897443676</v>
       </c>
       <c r="I3" t="n">
-        <v>2.10558407543216</v>
+        <v>1.96740828766973</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1405,13 +1405,13 @@
         <v>63.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.39091781042217</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.18528955372106</v>
       </c>
       <c r="J4" t="n">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -1436,13 +1436,13 @@
         <v>59.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08269622006869</v>
+        <v>2.69523766201895</v>
       </c>
       <c r="I5" t="n">
-        <v>1.02990458770797</v>
+        <v>1.89932338554156</v>
       </c>
       <c r="J5" t="n">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -1467,13 +1467,13 @@
         <v>51.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2.45768503835931</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.84258416742493</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1498,13 +1498,13 @@
         <v>18.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75025345862321</v>
+        <v>3.74336900858961</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56197562133924</v>
+        <v>2.60863670160808</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1529,13 +1529,13 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.21730382359849</v>
+        <v>2.59844977377734</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67338111756845</v>
+        <v>1.62392732954532</v>
       </c>
       <c r="J8" t="n">
-        <v>4625</v>
+        <v>4497</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1560,13 +1560,13 @@
         <v>10.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48630908928327</v>
+        <v>2.70232680155752</v>
       </c>
       <c r="I9" t="n">
-        <v>2.14614801717605</v>
+        <v>2.46628745439398</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1591,13 +1591,13 @@
         <v>31.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.43597504201389</v>
+        <v>4.00818538461584</v>
       </c>
       <c r="I10" t="n">
-        <v>3.09563522463902</v>
+        <v>3.01742815301046</v>
       </c>
       <c r="J10" t="n">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1622,13 +1622,13 @@
         <v>56</v>
       </c>
       <c r="H11" t="n">
-        <v>2.10616881872088</v>
+        <v>2.24954625677863</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56828170094816</v>
+        <v>1.56282400692082</v>
       </c>
       <c r="J11" t="n">
-        <v>3412</v>
+        <v>3396</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1653,13 +1653,13 @@
         <v>56.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2.1979040142439</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>1.65590633493623</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1667,30 +1667,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.31686</v>
+        <v>12.31727</v>
       </c>
       <c r="B13" t="n">
-        <v>78.93538</v>
+        <v>78.93606</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.27128204711273</v>
+        <v>2.95042969664599</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84929061326523</v>
+        <v>2.5440269209198</v>
       </c>
       <c r="J13" t="n">
-        <v>12213</v>
+        <v>8064</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1698,30 +1698,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B14" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>12.3</v>
+        <v>10.8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="G14" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93729347732999</v>
+        <v>3.18624966185189</v>
       </c>
       <c r="I14" t="n">
-        <v>1.78123083214067</v>
+        <v>2.8201844761427</v>
       </c>
       <c r="J14" t="n">
-        <v>4224</v>
+        <v>12150</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1729,30 +1729,30 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B15" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95042969664599</v>
+        <v>3.0280483575851</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5440269209198</v>
+        <v>1.99291603762629</v>
       </c>
       <c r="J15" t="n">
-        <v>8064</v>
+        <v>4192</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -1830,13 +1830,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1744812059692</v>
+        <v>1.1941569150413</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0642516552915</v>
+        <v>1.0622206852928</v>
       </c>
       <c r="J2" t="n">
-        <v>28974</v>
+        <v>28942</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1865,13 +1865,13 @@
         <v>10.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.59360581523684</v>
+        <v>3.47991708735764</v>
       </c>
       <c r="I3" t="n">
-        <v>1.40975609756098</v>
+        <v>2.80747842761266</v>
       </c>
       <c r="J3" t="n">
-        <v>1088</v>
+        <v>968</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>31.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22544747809351</v>
+        <v>3.77423389558412</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08929786022961</v>
+        <v>2.71743740754566</v>
       </c>
       <c r="J4" t="n">
-        <v>2852</v>
+        <v>2804</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -1935,13 +1935,13 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.64310776515972</v>
+        <v>1.92021685664587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3723891689346</v>
+        <v>1.38589950762787</v>
       </c>
       <c r="J5" t="n">
-        <v>9438</v>
+        <v>9422</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -2054,13 +2054,13 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.55071534532916</v>
+        <v>1.55337033982386</v>
       </c>
       <c r="I3" t="n">
-        <v>1.29024309137883</v>
+        <v>1.27770715851796</v>
       </c>
       <c r="J3" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -2089,13 +2089,13 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.57788215413983</v>
+        <v>3.28003246304304</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39346464816103</v>
+        <v>2.91194305299235</v>
       </c>
       <c r="J4" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -2124,13 +2124,13 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.49845168516859</v>
+        <v>1.53827684394668</v>
       </c>
       <c r="I5" t="n">
-        <v>1.25231910946197</v>
+        <v>1.2069825436409</v>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -2159,13 +2159,13 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.63242122270509</v>
+        <v>2.99820896691871</v>
       </c>
       <c r="I6" t="n">
-        <v>2.20996226415094</v>
+        <v>1.86058928218311</v>
       </c>
       <c r="J6" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -2194,13 +2194,13 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.35642299387014</v>
+        <v>4.30572415144439</v>
       </c>
       <c r="I7" t="n">
-        <v>1.77324987176497</v>
+        <v>2.90539912099716</v>
       </c>
       <c r="J7" t="n">
-        <v>2548</v>
+        <v>2492</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -2229,13 +2229,13 @@
         <v>31.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.54257340002504</v>
+        <v>4.01401903409995</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14103299498716</v>
+        <v>2.32158966231866</v>
       </c>
       <c r="J8" t="n">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -2264,13 +2264,13 @@
         <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>1.14106537143524</v>
+        <v>1.12491199620574</v>
       </c>
       <c r="I9" t="n">
-        <v>1.05071382847245</v>
+        <v>1.04058845231599</v>
       </c>
       <c r="J9" t="n">
-        <v>3253</v>
+        <v>3237</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -2299,13 +2299,13 @@
         <v>56.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.26221059283939</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.09222298692361</v>
       </c>
       <c r="J10" t="n">
-        <v>2224</v>
+        <v>2208</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -2334,13 +2334,13 @@
         <v>26.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.40295819640046</v>
+        <v>1.42039124276374</v>
       </c>
       <c r="I11" t="n">
-        <v>1.16819625833413</v>
+        <v>1.16012844921956</v>
       </c>
       <c r="J11" t="n">
-        <v>8188</v>
+        <v>8156</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -2418,10 +2418,10 @@
         <v>133.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5691925832142</v>
+        <v>3.46410161513775</v>
       </c>
       <c r="I2" t="n">
-        <v>1.38461538461538</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -2453,13 +2453,13 @@
         <v>80.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22691622198306</v>
+        <v>2.33730228574237</v>
       </c>
       <c r="I3" t="n">
-        <v>1.86466165413534</v>
+        <v>1.77023787571455</v>
       </c>
       <c r="J3" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -2488,13 +2488,13 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12588330890433</v>
+        <v>2.673465856889</v>
       </c>
       <c r="I4" t="n">
-        <v>1.05220319174099</v>
+        <v>1.74921709691071</v>
       </c>
       <c r="J4" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -2523,13 +2523,13 @@
         <v>51.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.94446447494602</v>
+        <v>2.22279388409872</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76950713956702</v>
+        <v>1.89104339796861</v>
       </c>
       <c r="J5" t="n">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -2558,13 +2558,13 @@
         <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.36385943365234</v>
+        <v>3.9060256927072</v>
       </c>
       <c r="I6" t="n">
-        <v>3.02085402184707</v>
+        <v>3.14392523364486</v>
       </c>
       <c r="J6" t="n">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -2593,10 +2593,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.45835600989616</v>
+        <v>1.66155301548926</v>
       </c>
       <c r="I7" t="n">
-        <v>1.22995840051476</v>
+        <v>1.23868687927838</v>
       </c>
       <c r="J7" t="n">
         <v>19936</v>
@@ -2628,13 +2628,13 @@
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.59322761969946</v>
+        <v>5.72787846739528</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22278677826334</v>
+        <v>4.67058568314386</v>
       </c>
       <c r="J8" t="n">
-        <v>4615</v>
+        <v>4145</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -2663,13 +2663,13 @@
         <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75401964582572</v>
+        <v>6.12163576720874</v>
       </c>
       <c r="I9" t="n">
-        <v>2.48437700912948</v>
+        <v>3.728227153424</v>
       </c>
       <c r="J9" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -2698,13 +2698,13 @@
         <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>1.46773093146641</v>
+        <v>1.51229497630201</v>
       </c>
       <c r="I10" t="n">
-        <v>1.19685294440236</v>
+        <v>1.18480168614677</v>
       </c>
       <c r="J10" t="n">
-        <v>5480</v>
+        <v>5448</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -2733,13 +2733,13 @@
         <v>56.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.27360376530882</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.12151686556938</v>
       </c>
       <c r="J11" t="n">
-        <v>1891</v>
+        <v>1876</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -2768,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.48494138336322</v>
+        <v>3.18978265488041</v>
       </c>
       <c r="I12" t="n">
-        <v>3.04024734959024</v>
+        <v>2.73495747310686</v>
       </c>
       <c r="J12" t="n">
-        <v>14936</v>
+        <v>13910</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
@@ -2782,34 +2782,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B13" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C13" t="n">
-        <v>8.2</v>
+        <v>9.88</v>
       </c>
       <c r="D13" t="n">
-        <v>376</v>
+        <v>1862</v>
       </c>
       <c r="E13" t="n">
-        <v>12.88</v>
+        <v>15.98</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.01090449770105</v>
+        <v>2.12830923479802</v>
       </c>
       <c r="I13" t="n">
-        <v>2.61571807093295</v>
+        <v>1.74151578812109</v>
       </c>
       <c r="J13" t="n">
-        <v>1565</v>
+        <v>48974</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -2817,34 +2817,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B14" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C14" t="n">
-        <v>9.88</v>
+        <v>8.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1862</v>
+        <v>376</v>
       </c>
       <c r="E14" t="n">
-        <v>15.98</v>
+        <v>12.88</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.12830923479802</v>
+        <v>7.62940890161622</v>
       </c>
       <c r="I14" t="n">
-        <v>1.74151578812109</v>
+        <v>5.50670207022111</v>
       </c>
       <c r="J14" t="n">
-        <v>48974</v>
+        <v>1453</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -2914,13 +2914,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51942420355039</v>
+        <v>1.53365745025076</v>
       </c>
       <c r="I2" t="n">
-        <v>1.24989015308802</v>
+        <v>1.23362249718058</v>
       </c>
       <c r="J2" t="n">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -2941,13 +2941,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>3.40415719954138</v>
+        <v>4.42135570429699</v>
       </c>
       <c r="I3" t="n">
-        <v>2.81178270849273</v>
+        <v>2.94592671647101</v>
       </c>
       <c r="J3" t="n">
-        <v>840</v>
+        <v>728</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -2995,13 +2995,13 @@
         <v>26.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35613141338627</v>
+        <v>2.90311074927064</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1980198019802</v>
+        <v>1.87545787545788</v>
       </c>
       <c r="J5" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -3022,13 +3022,13 @@
         <v>80.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7257829134276</v>
+        <v>3.08794870829683</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4949083503055</v>
+        <v>2.75238095238095</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -3049,13 +3049,13 @@
         <v>63.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.13218859989063</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>1.04284852142426</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -3076,13 +3076,13 @@
         <v>59.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2.92572655996732</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="J8" t="n">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -3103,13 +3103,13 @@
         <v>51.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.31152341404742</v>
+        <v>3.91177515966925</v>
       </c>
       <c r="I9" t="n">
-        <v>1.16551724137931</v>
+        <v>3.06372549019608</v>
       </c>
       <c r="J9" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -3130,13 +3130,13 @@
         <v>18.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3068953100124</v>
+        <v>3.91602349177445</v>
       </c>
       <c r="I10" t="n">
-        <v>1.92554410080183</v>
+        <v>3.30612244897959</v>
       </c>
       <c r="J10" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -3159,13 +3159,13 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58198460154254</v>
+        <v>3.00570961721268</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26555441724244</v>
+        <v>2.11522904599165</v>
       </c>
       <c r="J11" t="n">
-        <v>2075</v>
+        <v>1675</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -3190,13 +3190,13 @@
         <v>10.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.228989209488</v>
+        <v>2.12330679576051</v>
       </c>
       <c r="I12" t="n">
-        <v>1.11076923076923</v>
+        <v>1.79503105590062</v>
       </c>
       <c r="J12" t="n">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -3221,13 +3221,13 @@
         <v>31.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.95526408007085</v>
+        <v>1.97829220236952</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65606806986117</v>
+        <v>1.43177976334219</v>
       </c>
       <c r="J13" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -3252,13 +3252,13 @@
         <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>2.67640951979241</v>
+        <v>2.67544182052594</v>
       </c>
       <c r="I14" t="n">
-        <v>1.96353100063555</v>
+        <v>1.81556416554289</v>
       </c>
       <c r="J14" t="n">
-        <v>1334</v>
+        <v>1270</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -3283,13 +3283,13 @@
         <v>56.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2.74945927399721</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
@@ -3297,30 +3297,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.88216</v>
+        <v>12.31727</v>
       </c>
       <c r="B16" t="n">
-        <v>78.92394</v>
+        <v>78.93606</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.29688576474384</v>
+        <v>2.13859472207503</v>
       </c>
       <c r="I16" t="n">
-        <v>1.15530211113807</v>
+        <v>1.77479579929988</v>
       </c>
       <c r="J16" t="n">
-        <v>1104</v>
+        <v>312</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -3328,30 +3328,30 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B17" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.13859472207503</v>
+        <v>1.40832646937165</v>
       </c>
       <c r="I17" t="n">
-        <v>1.77479579929988</v>
+        <v>1.14424190696824</v>
       </c>
       <c r="J17" t="n">
-        <v>312</v>
+        <v>1096</v>
       </c>
       <c r="K17" t="s">
         <v>12</v>
@@ -3380,10 +3380,10 @@
         <v>133.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -3415,13 +3415,13 @@
         <v>80.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.77571727183795</v>
+        <v>3.76331698954856</v>
       </c>
       <c r="I19" t="n">
-        <v>2.62099418096071</v>
+        <v>3.24526770828723</v>
       </c>
       <c r="J19" t="n">
-        <v>587</v>
+        <v>469</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
@@ -3450,13 +3450,13 @@
         <v>59.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.83710910646687</v>
+        <v>2.02291925093944</v>
       </c>
       <c r="I20" t="n">
-        <v>1.71668063704946</v>
+        <v>1.64119376772829</v>
       </c>
       <c r="J20" t="n">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -3485,13 +3485,13 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14704780483443</v>
+        <v>3.80984680425868</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0265916508652</v>
+        <v>2.89489054139907</v>
       </c>
       <c r="J21" t="n">
-        <v>12820</v>
+        <v>12243</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
@@ -3520,13 +3520,13 @@
         <v>10.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.14987173540713</v>
+        <v>5.68845507482931</v>
       </c>
       <c r="I22" t="n">
-        <v>1.06481418815696</v>
+        <v>4.68261758691207</v>
       </c>
       <c r="J22" t="n">
-        <v>1273</v>
+        <v>856</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
@@ -3555,13 +3555,13 @@
         <v>31.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66086704330599</v>
+        <v>5.37144107818333</v>
       </c>
       <c r="I23" t="n">
-        <v>2.39046794914465</v>
+        <v>3.08910095429432</v>
       </c>
       <c r="J23" t="n">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
@@ -3590,13 +3590,13 @@
         <v>56.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>5.02772031608155</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3.61199294532628</v>
       </c>
       <c r="J24" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
@@ -3625,13 +3625,13 @@
         <v>26.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.67412507494802</v>
+        <v>8.7490466214598</v>
       </c>
       <c r="I25" t="n">
-        <v>1.49917981072555</v>
+        <v>7.13266761768902</v>
       </c>
       <c r="J25" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
@@ -3687,13 +3687,13 @@
         <v>80.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.46445910732655</v>
+        <v>2.50449897443676</v>
       </c>
       <c r="I27" t="n">
-        <v>2.10558407543216</v>
+        <v>1.96740828766973</v>
       </c>
       <c r="J27" t="n">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
@@ -3718,13 +3718,13 @@
         <v>63.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>1.39091781042217</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>1.18528955372106</v>
       </c>
       <c r="J28" t="n">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
@@ -3749,13 +3749,13 @@
         <v>59.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.08269622006869</v>
+        <v>2.69523766201895</v>
       </c>
       <c r="I29" t="n">
-        <v>1.02990458770797</v>
+        <v>1.89932338554156</v>
       </c>
       <c r="J29" t="n">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
@@ -3780,13 +3780,13 @@
         <v>51.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2.45768503835931</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>1.84258416742493</v>
       </c>
       <c r="J30" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -3811,13 +3811,13 @@
         <v>18.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.75025345862321</v>
+        <v>3.74336900858961</v>
       </c>
       <c r="I31" t="n">
-        <v>2.56197562133924</v>
+        <v>2.60863670160808</v>
       </c>
       <c r="J31" t="n">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -3842,13 +3842,13 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.21730382359849</v>
+        <v>2.59844977377734</v>
       </c>
       <c r="I32" t="n">
-        <v>1.67338111756845</v>
+        <v>1.62392732954532</v>
       </c>
       <c r="J32" t="n">
-        <v>4625</v>
+        <v>4497</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -3873,13 +3873,13 @@
         <v>10.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.48630908928327</v>
+        <v>2.70232680155752</v>
       </c>
       <c r="I33" t="n">
-        <v>2.14614801717605</v>
+        <v>2.46628745439398</v>
       </c>
       <c r="J33" t="n">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -3904,13 +3904,13 @@
         <v>31.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.43597504201389</v>
+        <v>4.00818538461584</v>
       </c>
       <c r="I34" t="n">
-        <v>3.09563522463902</v>
+        <v>3.01742815301046</v>
       </c>
       <c r="J34" t="n">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
@@ -3935,13 +3935,13 @@
         <v>56</v>
       </c>
       <c r="H35" t="n">
-        <v>2.10616881872088</v>
+        <v>2.24954625677863</v>
       </c>
       <c r="I35" t="n">
-        <v>1.56828170094816</v>
+        <v>1.56282400692082</v>
       </c>
       <c r="J35" t="n">
-        <v>3412</v>
+        <v>3396</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
@@ -3966,13 +3966,13 @@
         <v>56.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2.1979040142439</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>1.65590633493623</v>
       </c>
       <c r="J36" t="n">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
@@ -3980,30 +3980,30 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.31686</v>
+        <v>12.31727</v>
       </c>
       <c r="B37" t="n">
-        <v>78.93538</v>
+        <v>78.93606</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.27128204711273</v>
+        <v>2.95042969664599</v>
       </c>
       <c r="I37" t="n">
-        <v>2.84929061326523</v>
+        <v>2.5440269209198</v>
       </c>
       <c r="J37" t="n">
-        <v>12213</v>
+        <v>8064</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -4011,30 +4011,30 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B38" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>12.3</v>
+        <v>10.8</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="G38" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.93729347732999</v>
+        <v>3.18624966185189</v>
       </c>
       <c r="I38" t="n">
-        <v>1.78123083214067</v>
+        <v>2.8201844761427</v>
       </c>
       <c r="J38" t="n">
-        <v>4224</v>
+        <v>12150</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -4042,30 +4042,30 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12.31727</v>
+        <v>11.88216</v>
       </c>
       <c r="B39" t="n">
-        <v>78.93606</v>
+        <v>78.92394</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2.95042969664599</v>
+        <v>3.0280483575851</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5440269209198</v>
+        <v>1.99291603762629</v>
       </c>
       <c r="J39" t="n">
-        <v>8064</v>
+        <v>4192</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -4094,13 +4094,13 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.1744812059692</v>
+        <v>1.1941569150413</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0642516552915</v>
+        <v>1.0622206852928</v>
       </c>
       <c r="J40" t="n">
-        <v>28974</v>
+        <v>28942</v>
       </c>
       <c r="K40" t="s">
         <v>15</v>
@@ -4129,13 +4129,13 @@
         <v>10.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1.59360581523684</v>
+        <v>3.47991708735764</v>
       </c>
       <c r="I41" t="n">
-        <v>1.40975609756098</v>
+        <v>2.80747842761266</v>
       </c>
       <c r="J41" t="n">
-        <v>1088</v>
+        <v>968</v>
       </c>
       <c r="K41" t="s">
         <v>15</v>
@@ -4164,13 +4164,13 @@
         <v>31.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22544747809351</v>
+        <v>3.77423389558412</v>
       </c>
       <c r="I42" t="n">
-        <v>2.08929786022961</v>
+        <v>2.71743740754566</v>
       </c>
       <c r="J42" t="n">
-        <v>2852</v>
+        <v>2804</v>
       </c>
       <c r="K42" t="s">
         <v>15</v>
@@ -4199,13 +4199,13 @@
         <v>26.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.64310776515972</v>
+        <v>1.92021685664587</v>
       </c>
       <c r="I43" t="n">
-        <v>1.3723891689346</v>
+        <v>1.38589950762787</v>
       </c>
       <c r="J43" t="n">
-        <v>9438</v>
+        <v>9422</v>
       </c>
       <c r="K43" t="s">
         <v>15</v>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>16</v>
@@ -4269,13 +4269,13 @@
         <v>80.3</v>
       </c>
       <c r="H45" t="n">
-        <v>1.55071534532916</v>
+        <v>1.55337033982386</v>
       </c>
       <c r="I45" t="n">
-        <v>1.29024309137883</v>
+        <v>1.27770715851796</v>
       </c>
       <c r="J45" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
@@ -4304,13 +4304,13 @@
         <v>59.6</v>
       </c>
       <c r="H46" t="n">
-        <v>1.57788215413983</v>
+        <v>3.28003246304304</v>
       </c>
       <c r="I46" t="n">
-        <v>1.39346464816103</v>
+        <v>2.91194305299235</v>
       </c>
       <c r="J46" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
@@ -4339,13 +4339,13 @@
         <v>51.7</v>
       </c>
       <c r="H47" t="n">
-        <v>1.49845168516859</v>
+        <v>1.53827684394668</v>
       </c>
       <c r="I47" t="n">
-        <v>1.25231910946197</v>
+        <v>1.2069825436409</v>
       </c>
       <c r="J47" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
         <v>16</v>
@@ -4374,13 +4374,13 @@
         <v>18.7</v>
       </c>
       <c r="H48" t="n">
-        <v>2.63242122270509</v>
+        <v>2.99820896691871</v>
       </c>
       <c r="I48" t="n">
-        <v>2.20996226415094</v>
+        <v>1.86058928218311</v>
       </c>
       <c r="J48" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
@@ -4409,13 +4409,13 @@
         <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.35642299387014</v>
+        <v>4.30572415144439</v>
       </c>
       <c r="I49" t="n">
-        <v>1.77324987176497</v>
+        <v>2.90539912099716</v>
       </c>
       <c r="J49" t="n">
-        <v>2548</v>
+        <v>2492</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
@@ -4444,13 +4444,13 @@
         <v>31.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.54257340002504</v>
+        <v>4.01401903409995</v>
       </c>
       <c r="I50" t="n">
-        <v>2.14103299498716</v>
+        <v>2.32158966231866</v>
       </c>
       <c r="J50" t="n">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="K50" t="s">
         <v>16</v>
@@ -4479,13 +4479,13 @@
         <v>56</v>
       </c>
       <c r="H51" t="n">
-        <v>1.14106537143524</v>
+        <v>1.12491199620574</v>
       </c>
       <c r="I51" t="n">
-        <v>1.05071382847245</v>
+        <v>1.04058845231599</v>
       </c>
       <c r="J51" t="n">
-        <v>3253</v>
+        <v>3237</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
@@ -4514,13 +4514,13 @@
         <v>56.4</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>1.26221059283939</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>1.09222298692361</v>
       </c>
       <c r="J52" t="n">
-        <v>2224</v>
+        <v>2208</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
@@ -4549,13 +4549,13 @@
         <v>26.6</v>
       </c>
       <c r="H53" t="n">
-        <v>1.40295819640046</v>
+        <v>1.42039124276374</v>
       </c>
       <c r="I53" t="n">
-        <v>1.16819625833413</v>
+        <v>1.16012844921956</v>
       </c>
       <c r="J53" t="n">
-        <v>8188</v>
+        <v>8156</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
@@ -4584,10 +4584,10 @@
         <v>133.7</v>
       </c>
       <c r="H54" t="n">
-        <v>1.5691925832142</v>
+        <v>3.46410161513775</v>
       </c>
       <c r="I54" t="n">
-        <v>1.38461538461538</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -4619,13 +4619,13 @@
         <v>80.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.22691622198306</v>
+        <v>2.33730228574237</v>
       </c>
       <c r="I55" t="n">
-        <v>1.86466165413534</v>
+        <v>1.77023787571455</v>
       </c>
       <c r="J55" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
@@ -4654,13 +4654,13 @@
         <v>59.6</v>
       </c>
       <c r="H56" t="n">
-        <v>1.12588330890433</v>
+        <v>2.673465856889</v>
       </c>
       <c r="I56" t="n">
-        <v>1.05220319174099</v>
+        <v>1.74921709691071</v>
       </c>
       <c r="J56" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -4689,13 +4689,13 @@
         <v>51.7</v>
       </c>
       <c r="H57" t="n">
-        <v>1.94446447494602</v>
+        <v>2.22279388409872</v>
       </c>
       <c r="I57" t="n">
-        <v>1.76950713956702</v>
+        <v>1.89104339796861</v>
       </c>
       <c r="J57" t="n">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -4724,13 +4724,13 @@
         <v>18.7</v>
       </c>
       <c r="H58" t="n">
-        <v>3.36385943365234</v>
+        <v>3.9060256927072</v>
       </c>
       <c r="I58" t="n">
-        <v>3.02085402184707</v>
+        <v>3.14392523364486</v>
       </c>
       <c r="J58" t="n">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -4759,10 +4759,10 @@
         <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>1.45835600989616</v>
+        <v>1.66155301548926</v>
       </c>
       <c r="I59" t="n">
-        <v>1.22995840051476</v>
+        <v>1.23868687927838</v>
       </c>
       <c r="J59" t="n">
         <v>19936</v>
@@ -4794,13 +4794,13 @@
         <v>10.7</v>
       </c>
       <c r="H60" t="n">
-        <v>2.59322761969946</v>
+        <v>5.72787846739528</v>
       </c>
       <c r="I60" t="n">
-        <v>2.22278677826334</v>
+        <v>4.67058568314386</v>
       </c>
       <c r="J60" t="n">
-        <v>4615</v>
+        <v>4145</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -4829,13 +4829,13 @@
         <v>31.2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.75401964582572</v>
+        <v>6.12163576720874</v>
       </c>
       <c r="I61" t="n">
-        <v>2.48437700912948</v>
+        <v>3.728227153424</v>
       </c>
       <c r="J61" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -4864,13 +4864,13 @@
         <v>56</v>
       </c>
       <c r="H62" t="n">
-        <v>1.46773093146641</v>
+        <v>1.51229497630201</v>
       </c>
       <c r="I62" t="n">
-        <v>1.19685294440236</v>
+        <v>1.18480168614677</v>
       </c>
       <c r="J62" t="n">
-        <v>5480</v>
+        <v>5448</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -4899,13 +4899,13 @@
         <v>56.4</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>1.27360376530882</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>1.12151686556938</v>
       </c>
       <c r="J63" t="n">
-        <v>1891</v>
+        <v>1876</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -4934,13 +4934,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.48494138336322</v>
+        <v>3.18978265488041</v>
       </c>
       <c r="I64" t="n">
-        <v>3.04024734959024</v>
+        <v>2.73495747310686</v>
       </c>
       <c r="J64" t="n">
-        <v>14936</v>
+        <v>13910</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -4948,34 +4948,34 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.88216</v>
+        <v>12.31686</v>
       </c>
       <c r="B65" t="n">
-        <v>78.92394</v>
+        <v>78.93538</v>
       </c>
       <c r="C65" t="n">
-        <v>8.2</v>
+        <v>9.88</v>
       </c>
       <c r="D65" t="n">
-        <v>376</v>
+        <v>1862</v>
       </c>
       <c r="E65" t="n">
-        <v>12.88</v>
+        <v>15.98</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>26.6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.01090449770105</v>
+        <v>2.12830923479802</v>
       </c>
       <c r="I65" t="n">
-        <v>2.61571807093295</v>
+        <v>1.74151578812109</v>
       </c>
       <c r="J65" t="n">
-        <v>1565</v>
+        <v>48974</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -4983,34 +4983,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12.31686</v>
+        <v>11.88216</v>
       </c>
       <c r="B66" t="n">
-        <v>78.93538</v>
+        <v>78.92394</v>
       </c>
       <c r="C66" t="n">
-        <v>9.88</v>
+        <v>8.2</v>
       </c>
       <c r="D66" t="n">
-        <v>1862</v>
+        <v>376</v>
       </c>
       <c r="E66" t="n">
-        <v>15.98</v>
+        <v>12.88</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>26.6</v>
       </c>
       <c r="H66" t="n">
-        <v>2.12830923479802</v>
+        <v>7.62940890161622</v>
       </c>
       <c r="I66" t="n">
-        <v>1.74151578812109</v>
+        <v>5.50670207022111</v>
       </c>
       <c r="J66" t="n">
-        <v>48974</v>
+        <v>1453</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>

--- a/kriging_data.xlsx
+++ b/kriging_data.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Year 2022" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Year 2023" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Year 2024" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="All Years" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -2854,2170 +2853,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B2" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.53365745025076</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.23362249718058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>12.50285</v>
-      </c>
-      <c r="B3" t="n">
-        <v>78.9238</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="n">
-        <v>56</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.42135570429699</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.94592671647101</v>
-      </c>
-      <c r="J3" t="n">
-        <v>728</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12.31686</v>
-      </c>
-      <c r="B4" t="n">
-        <v>78.93538</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.40957388331014</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.9653024911032</v>
-      </c>
-      <c r="J4" t="n">
-        <v>188</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B5" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.90311074927064</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.87545787545788</v>
-      </c>
-      <c r="J5" t="n">
-        <v>128</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>12.08822</v>
-      </c>
-      <c r="B6" t="n">
-        <v>78.89881</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.08794870829683</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.75238095238095</v>
-      </c>
-      <c r="J6" t="n">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>12.09048</v>
-      </c>
-      <c r="B7" t="n">
-        <v>78.90097</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.13218859989063</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.04284852142426</v>
-      </c>
-      <c r="J7" t="n">
-        <v>288</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>12.09401</v>
-      </c>
-      <c r="B8" t="n">
-        <v>78.9013</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.92572655996732</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.28571428571429</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12.10333</v>
-      </c>
-      <c r="B9" t="n">
-        <v>78.90157</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.91177515966925</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.06372549019608</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>12.12543</v>
-      </c>
-      <c r="B10" t="n">
-        <v>78.90396</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.91602349177445</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.30612244897959</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B11" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.00570961721268</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.11522904599165</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.64111</v>
-      </c>
-      <c r="B12" t="n">
-        <v>78.96232</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.12330679576051</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.79503105590062</v>
-      </c>
-      <c r="J12" t="n">
-        <v>272</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B13" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.97829220236952</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.43177976334219</v>
-      </c>
-      <c r="J13" t="n">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12.50285</v>
-      </c>
-      <c r="B14" t="n">
-        <v>78.9238</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>16</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>56</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.67544182052594</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.81556416554289</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1270</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>11.64373</v>
-      </c>
-      <c r="B15" t="n">
-        <v>78.95391</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.74945927399721</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.57142857142857</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>12.31727</v>
-      </c>
-      <c r="B16" t="n">
-        <v>78.93606</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.13859472207503</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.77479579929988</v>
-      </c>
-      <c r="J16" t="n">
-        <v>312</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B17" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.40832646937165</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.14424190696824</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1096</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>12.07579</v>
-      </c>
-      <c r="B18" t="n">
-        <v>78.89401</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>469</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>12.08822</v>
-      </c>
-      <c r="B19" t="n">
-        <v>78.89881</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="D19" t="n">
-        <v>480</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.76331698954856</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.24526770828723</v>
-      </c>
-      <c r="J19" t="n">
-        <v>469</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>12.09401</v>
-      </c>
-      <c r="B20" t="n">
-        <v>78.9013</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1048</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G20" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.02291925093944</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.64119376772829</v>
-      </c>
-      <c r="J20" t="n">
-        <v>533</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B21" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="D21" t="n">
-        <v>851</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.80984680425868</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.89489054139907</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12243</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>11.64111</v>
-      </c>
-      <c r="B22" t="n">
-        <v>78.96232</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="D22" t="n">
-        <v>509</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.68845507482931</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.68261758691207</v>
-      </c>
-      <c r="J22" t="n">
-        <v>856</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B23" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="D23" t="n">
-        <v>382</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.37144107818333</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.08910095429432</v>
-      </c>
-      <c r="J23" t="n">
-        <v>248</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>11.64373</v>
-      </c>
-      <c r="B24" t="n">
-        <v>78.95391</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D24" t="n">
-        <v>211</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5.02772031608155</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.61199294532628</v>
-      </c>
-      <c r="J24" t="n">
-        <v>64</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B25" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>330</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8.7490466214598</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.13266761768902</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>12.07579</v>
-      </c>
-      <c r="B26" t="n">
-        <v>78.89401</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>12.08822</v>
-      </c>
-      <c r="B27" t="n">
-        <v>78.89881</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.50449897443676</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.96740828766973</v>
-      </c>
-      <c r="J27" t="n">
-        <v>299</v>
-      </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>12.09048</v>
-      </c>
-      <c r="B28" t="n">
-        <v>78.90097</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.39091781042217</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.18528955372106</v>
-      </c>
-      <c r="J28" t="n">
-        <v>309</v>
-      </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>12.09401</v>
-      </c>
-      <c r="B29" t="n">
-        <v>78.9013</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.69523766201895</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.89932338554156</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1478</v>
-      </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>12.10333</v>
-      </c>
-      <c r="B30" t="n">
-        <v>78.90157</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G30" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.45768503835931</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.84258416742493</v>
-      </c>
-      <c r="J30" t="n">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>12.12543</v>
-      </c>
-      <c r="B31" t="n">
-        <v>78.90396</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.74336900858961</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.60863670160808</v>
-      </c>
-      <c r="J31" t="n">
-        <v>423</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B32" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.59844977377734</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.62392732954532</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4497</v>
-      </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>11.64111</v>
-      </c>
-      <c r="B33" t="n">
-        <v>78.96232</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" t="n">
-        <v>12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.70232680155752</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.46628745439398</v>
-      </c>
-      <c r="J33" t="n">
-        <v>293</v>
-      </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B34" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G34" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.00818538461584</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.01742815301046</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1078</v>
-      </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>12.50285</v>
-      </c>
-      <c r="B35" t="n">
-        <v>78.9238</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G35" t="n">
-        <v>56</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.24954625677863</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.56282400692082</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>11.64373</v>
-      </c>
-      <c r="B36" t="n">
-        <v>78.95391</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G36" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.1979040142439</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.65590633493623</v>
-      </c>
-      <c r="J36" t="n">
-        <v>398</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>12.31727</v>
-      </c>
-      <c r="B37" t="n">
-        <v>78.93606</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" t="n">
-        <v>10</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.95042969664599</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.5440269209198</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8064</v>
-      </c>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>12.31686</v>
-      </c>
-      <c r="B38" t="n">
-        <v>78.93538</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.18624966185189</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.8201844761427</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12150</v>
-      </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B39" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.0280483575851</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.99291603762629</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4192</v>
-      </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B40" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D40" t="n">
-        <v>257</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.1941569150413</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.0622206852928</v>
-      </c>
-      <c r="J40" t="n">
-        <v>28942</v>
-      </c>
-      <c r="K40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>11.64111</v>
-      </c>
-      <c r="B41" t="n">
-        <v>78.96232</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D41" t="n">
-        <v>369</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.47991708735764</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.80747842761266</v>
-      </c>
-      <c r="J41" t="n">
-        <v>968</v>
-      </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B42" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="D42" t="n">
-        <v>203</v>
-      </c>
-      <c r="E42" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G42" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.77423389558412</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.71743740754566</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2804</v>
-      </c>
-      <c r="K42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B43" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D43" t="n">
-        <v>279</v>
-      </c>
-      <c r="E43" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.92021685664587</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.38589950762787</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9422</v>
-      </c>
-      <c r="K43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>12.07579</v>
-      </c>
-      <c r="B44" t="n">
-        <v>78.89401</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D44" t="n">
-        <v>194</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>12.08822</v>
-      </c>
-      <c r="B45" t="n">
-        <v>78.89881</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="D45" t="n">
-        <v>179</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G45" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.55337033982386</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.27770715851796</v>
-      </c>
-      <c r="J45" t="n">
-        <v>387</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>12.09401</v>
-      </c>
-      <c r="B46" t="n">
-        <v>78.9013</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="D46" t="n">
-        <v>368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G46" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.28003246304304</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.91194305299235</v>
-      </c>
-      <c r="J46" t="n">
-        <v>235</v>
-      </c>
-      <c r="K46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>12.10333</v>
-      </c>
-      <c r="B47" t="n">
-        <v>78.90157</v>
-      </c>
-      <c r="C47" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="D47" t="n">
-        <v>239</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.53827684394668</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.2069825436409</v>
-      </c>
-      <c r="J47" t="n">
-        <v>44</v>
-      </c>
-      <c r="K47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>12.12543</v>
-      </c>
-      <c r="B48" t="n">
-        <v>78.90396</v>
-      </c>
-      <c r="C48" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D48" t="n">
-        <v>162</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G48" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.99820896691871</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.86058928218311</v>
-      </c>
-      <c r="J48" t="n">
-        <v>97</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B49" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>299</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4.30572415144439</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.90539912099716</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2492</v>
-      </c>
-      <c r="K49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B50" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="D50" t="n">
-        <v>211</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4.01401903409995</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.32158966231866</v>
-      </c>
-      <c r="J50" t="n">
-        <v>552</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>12.50285</v>
-      </c>
-      <c r="B51" t="n">
-        <v>78.9238</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="D51" t="n">
-        <v>236</v>
-      </c>
-      <c r="E51" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G51" t="n">
-        <v>56</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.12491199620574</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.04058845231599</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3237</v>
-      </c>
-      <c r="K51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>11.64373</v>
-      </c>
-      <c r="B52" t="n">
-        <v>78.95391</v>
-      </c>
-      <c r="C52" t="n">
-        <v>8.47</v>
-      </c>
-      <c r="D52" t="n">
-        <v>166</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1.26221059283939</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.09222298692361</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2208</v>
-      </c>
-      <c r="K52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B53" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="D53" t="n">
-        <v>212</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G53" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.42039124276374</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.16012844921956</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8156</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>12.07579</v>
-      </c>
-      <c r="B54" t="n">
-        <v>78.89401</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D54" t="n">
-        <v>982</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.46</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G54" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.46410161513775</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>12.08822</v>
-      </c>
-      <c r="B55" t="n">
-        <v>78.89881</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8.86</v>
-      </c>
-      <c r="D55" t="n">
-        <v>553</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G55" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2.33730228574237</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.77023787571455</v>
-      </c>
-      <c r="J55" t="n">
-        <v>240</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>12.09401</v>
-      </c>
-      <c r="B56" t="n">
-        <v>78.9013</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1361</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G56" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2.673465856889</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.74921709691071</v>
-      </c>
-      <c r="J56" t="n">
-        <v>249</v>
-      </c>
-      <c r="K56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>12.10333</v>
-      </c>
-      <c r="B57" t="n">
-        <v>78.90157</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="D57" t="n">
-        <v>992</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G57" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.22279388409872</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.89104339796861</v>
-      </c>
-      <c r="J57" t="n">
-        <v>384</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>12.12543</v>
-      </c>
-      <c r="B58" t="n">
-        <v>78.90396</v>
-      </c>
-      <c r="C58" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="D58" t="n">
-        <v>583</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G58" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.9060256927072</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.14392523364486</v>
-      </c>
-      <c r="J58" t="n">
-        <v>116</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>11.93971</v>
-      </c>
-      <c r="B59" t="n">
-        <v>78.9265</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="D59" t="n">
-        <v>632</v>
-      </c>
-      <c r="E59" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.66155301548926</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.23868687927838</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19936</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>11.64111</v>
-      </c>
-      <c r="B60" t="n">
-        <v>78.96232</v>
-      </c>
-      <c r="C60" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="D60" t="n">
-        <v>572</v>
-      </c>
-      <c r="E60" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G60" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H60" t="n">
-        <v>5.72787846739528</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.67058568314386</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4145</v>
-      </c>
-      <c r="K60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>11.82509</v>
-      </c>
-      <c r="B61" t="n">
-        <v>78.94079</v>
-      </c>
-      <c r="C61" t="n">
-        <v>8.46</v>
-      </c>
-      <c r="D61" t="n">
-        <v>348</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G61" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6.12163576720874</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.728227153424</v>
-      </c>
-      <c r="J61" t="n">
-        <v>250</v>
-      </c>
-      <c r="K61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>12.50285</v>
-      </c>
-      <c r="B62" t="n">
-        <v>78.9238</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="D62" t="n">
-        <v>316</v>
-      </c>
-      <c r="E62" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>56</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.51229497630201</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.18480168614677</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5448</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>11.64373</v>
-      </c>
-      <c r="B63" t="n">
-        <v>78.95391</v>
-      </c>
-      <c r="C63" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>166</v>
-      </c>
-      <c r="E63" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G63" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.27360376530882</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.12151686556938</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1876</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>12.31727</v>
-      </c>
-      <c r="B64" t="n">
-        <v>78.93606</v>
-      </c>
-      <c r="C64" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1203</v>
-      </c>
-      <c r="E64" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3.18978265488041</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.73495747310686</v>
-      </c>
-      <c r="J64" t="n">
-        <v>13910</v>
-      </c>
-      <c r="K64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>12.31686</v>
-      </c>
-      <c r="B65" t="n">
-        <v>78.93538</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9.88</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1862</v>
-      </c>
-      <c r="E65" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.12830923479802</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.74151578812109</v>
-      </c>
-      <c r="J65" t="n">
-        <v>48974</v>
-      </c>
-      <c r="K65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>11.88216</v>
-      </c>
-      <c r="B66" t="n">
-        <v>78.92394</v>
-      </c>
-      <c r="C66" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>376</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7.62940890161622</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.50670207022111</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1453</v>
-      </c>
-      <c r="K66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>